--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balladaniel\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B16A82-3161-4D5C-A3D6-7C82EC4BFAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3A06EF-CB2F-4CA3-AC17-1FADFA7999D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Polygons" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
   <si>
     <t>Leaflet</t>
   </si>
@@ -119,12 +118,24 @@
   <si>
     <t>Polygons</t>
   </si>
+  <si>
+    <t>MBoxGLJS 1 db feature betolteset, sot, reteg nelkuli betolteset is kb 200msig csinalja, ugyhogy megiscsak network dolog. Plusz felfedezes: az mellett, hogy mar map object initnel kell lennie tokennek, ha elrontom a tokent (tehat van string, de rossz), akkor egy pillanatig megjelenik a terkep a pontommal, es utana eltuntet mindent.</t>
+  </si>
+  <si>
+    <t>Egy dolgot nem magyaraznak ezek: MLibGLJS miert hasonloan lassu?! Lehet csak veletlen a hasonlosag, es ennyit tud a MLib, tul van bonyolitva a kod es egyszeruen sokaig tart meg ugy is, hogy nincs semmi network request.</t>
+  </si>
+  <si>
+    <t>https://docs.mapbox.com/help/troubleshooting/working-with-large-geojson-data/</t>
+  </si>
+  <si>
+    <t>Konkluzio fele: mapbox kb 50000 featuretol veri le idoben a Leafletet es OL-t, csak azert mert tokent checkel/authol, ami megkerulhetetlen. Szep....</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +178,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -194,10 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,8 +229,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -262,7 +293,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 500000 features</a:t>
+              <a:t>Full chart: 50 - 500000 features (LINEAR Y)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1818,7 +1849,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 500000 features</a:t>
+              <a:t>Full chart: 50 - 500000 features (LOG Y)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1879,7 +1910,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Lines!$B$58:$J$58</c:f>
+              <c:f>Points!$B$58:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1915,36 +1946,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lines!$B$15:$J$15</c:f>
+              <c:f>Points!$B$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>19.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>32.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>136.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1993.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,7 +1983,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000000-7B51-49B0-84FD-FA5686FBC1E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1976,7 +2007,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Lines!$B$58:$J$58</c:f>
+              <c:f>Points!$B$58:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2012,36 +2043,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lines!$B$33:$J$33</c:f>
+              <c:f>Points!$B$33:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>268.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>310.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>377.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,7 +2080,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000001-7B51-49B0-84FD-FA5686FBC1E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2073,7 +2104,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Lines!$B$58:$J$58</c:f>
+              <c:f>Points!$B$58:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2109,36 +2140,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lines!$B$51:$J$51</c:f>
+              <c:f>Points!$B$51:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>377.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>386.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1404.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2414</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>12395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,7 +2177,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000002-7B51-49B0-84FD-FA5686FBC1E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2170,7 +2201,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Lines!$B$58:$J$58</c:f>
+              <c:f>Points!$B$58:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2206,36 +2237,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lines!$B$69:$J$69</c:f>
+              <c:f>Points!$B$69:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>727.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2243,7 +2274,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000003-7B51-49B0-84FD-FA5686FBC1E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2369,6 +2400,7 @@
       <c:valAx>
         <c:axId val="445001359"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2604,7 +2636,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Excerpt for 50 - 10000 features</a:t>
+              <a:t>Full chart: 50 - 500000 features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2665,17 +2697,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2693,23 +2718,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$15:$J$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$15:$G$15</c:f>
+              <c:f>Lines!$B$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2726,6 +2753,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2734,7 +2770,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000000-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2758,17 +2794,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2786,23 +2815,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$33:$J$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$33:$G$33</c:f>
+              <c:f>Lines!$B$33:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2819,6 +2850,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2827,7 +2867,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000001-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2851,17 +2891,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2879,23 +2912,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$51:$J$51</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$51:$G$51</c:f>
+              <c:f>Lines!$B$51:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2912,6 +2947,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2920,7 +2964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000002-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2944,17 +2988,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2972,23 +3009,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$69:$J$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$69:$G$69</c:f>
+              <c:f>Lines!$B$69:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3005,6 +3044,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3013,7 +3061,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000003-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3374,6 +3422,776 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
+              <a:t>Excerpt for 50 - 10000 features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Leaflet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines!$B$15:$J$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8456-456C-A35C-5BE0499180A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MBoxGLJS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines!$B$33:$J$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines!$B$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8456-456C-A35C-5BE0499180A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MLibGLJS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines!$B$51:$J$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines!$B$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8456-456C-A35C-5BE0499180A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>OpenLayers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines!$B$69:$J$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines!$B$69:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8456-456C-A35C-5BE0499180A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444999919"/>
+        <c:axId val="445001359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444999919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Feature count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445001359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445001359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6405667412378821E-2"/>
+              <c:y val="0.42257846817365263"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444999919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
               <a:t>Full chart: 50 - 500000 features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
@@ -4125,7 +4943,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -5135,6 +5953,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7716,6 +8574,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8272,15 +9646,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8302,6 +9676,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCCA9B0-DF93-4C52-AF97-C51DA11062A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8735,10 +10147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8747,10 +10159,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8767,17 +10179,17 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="U3" t="s">
         <v>12</v>
       </c>
@@ -8883,16 +10295,16 @@
       <c r="J6">
         <v>10530</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
       <c r="U6" t="s">
         <v>15</v>
       </c>
@@ -8919,14 +10331,14 @@
       <c r="I7">
         <v>1993</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
       <c r="U7" t="s">
         <v>16</v>
       </c>
@@ -8944,14 +10356,14 @@
       <c r="D8">
         <v>33</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
       <c r="U8" t="s">
         <v>17</v>
       </c>
@@ -8966,14 +10378,14 @@
       <c r="D9">
         <v>29</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -9151,19 +10563,22 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -9219,13 +10634,13 @@
       <c r="G23" s="2">
         <v>444</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="11">
         <v>817</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="11">
         <v>1287</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="11">
         <v>6530</v>
       </c>
     </row>
@@ -9248,6 +10663,7 @@
       <c r="F24" s="2">
         <v>385</v>
       </c>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -9260,6 +10676,7 @@
         <v>317</v>
       </c>
       <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -9270,6 +10687,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -9280,6 +10698,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -9290,6 +10709,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -9300,6 +10720,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -9310,6 +10731,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -9320,6 +10742,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -9330,8 +10753,9 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -9372,7 +10796,7 @@
         <v>6530</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -9412,8 +10836,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L34" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -9453,32 +10880,60 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+    </row>
+    <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="8"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="8"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -9488,24 +10943,57 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
-      <c r="L38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="L38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="8"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="8"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -9536,8 +11024,17 @@
       <c r="J40" s="1">
         <v>500000</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -9569,7 +11066,7 @@
         <v>12440</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -9601,7 +11098,7 @@
         <v>12350</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -9612,7 +11109,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -9620,22 +11117,22 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
@@ -9785,17 +11282,17 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -10066,14 +11563,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="L6:S9"/>
+    <mergeCell ref="L36:T37"/>
+    <mergeCell ref="U35:AA39"/>
+    <mergeCell ref="L38:T40"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
     <mergeCell ref="B57:J57"/>
-    <mergeCell ref="L6:S9"/>
-    <mergeCell ref="L36:T37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10095,10 +11594,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10115,17 +11614,17 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="U3" t="s">
         <v>12</v>
       </c>
@@ -10177,16 +11676,16 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
       <c r="U6" t="s">
         <v>15</v>
       </c>
@@ -10195,14 +11694,14 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
       <c r="U7" t="s">
         <v>16</v>
       </c>
@@ -10211,14 +11710,14 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
       <c r="U8" t="s">
         <v>17</v>
       </c>
@@ -10227,14 +11726,14 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -10396,17 +11895,17 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -10668,28 +12167,28 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -10706,17 +12205,17 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -10935,17 +12434,17 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -11182,11 +12681,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11203,17 +12702,17 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="U3" t="s">
         <v>12</v>
       </c>
@@ -11265,16 +12764,16 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
       <c r="U6" t="s">
         <v>15</v>
       </c>
@@ -11283,14 +12782,14 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
       <c r="U7" t="s">
         <v>16</v>
       </c>
@@ -11299,14 +12798,14 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
       <c r="U8" t="s">
         <v>17</v>
       </c>
@@ -11315,14 +12814,14 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -11484,17 +12983,17 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -11756,28 +13255,28 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -11794,17 +13293,17 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -12023,17 +13522,17 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balladaniel\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdnl\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3A06EF-CB2F-4CA3-AC17-1FADFA7999D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D81BF0-4518-4CCC-ACE0-618EA99BA9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
-    <sheet name="Lines" sheetId="4" r:id="rId2"/>
-    <sheet name="Polygons" sheetId="5" r:id="rId3"/>
+    <sheet name="Points_AFTERBURN_PC" sheetId="6" r:id="rId2"/>
+    <sheet name="Lines" sheetId="4" r:id="rId3"/>
+    <sheet name="Polygons" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="32">
   <si>
     <t>Leaflet</t>
   </si>
@@ -130,12 +131,18 @@
   <si>
     <t>Konkluzio fele: mapbox kb 50000 featuretol veri le idoben a Leafletet es OL-t, csak azert mert tokent checkel/authol, ami megkerulhetetlen. Szep....</t>
   </si>
+  <si>
+    <t>just to see if having a strong GPU makes a difference in non-opengl and opengl libraries</t>
+  </si>
+  <si>
+    <t>PC WITH 3070 (OPENGL!) / R5 3600</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +193,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -213,34 +228,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,7 +277,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1047,7 +1063,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1817,7 +1833,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2604,7 +2620,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3390,7 +3406,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4160,7 +4176,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4946,7 +4962,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10149,8 +10165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10159,10 +10175,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10179,17 +10195,17 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="U3" t="s">
         <v>12</v>
       </c>
@@ -10295,16 +10311,16 @@
       <c r="J6">
         <v>10530</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
       <c r="U6" t="s">
         <v>15</v>
       </c>
@@ -10331,14 +10347,14 @@
       <c r="I7">
         <v>1993</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
       <c r="U7" t="s">
         <v>16</v>
       </c>
@@ -10356,14 +10372,14 @@
       <c r="D8">
         <v>33</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
       <c r="U8" t="s">
         <v>17</v>
       </c>
@@ -10378,14 +10394,14 @@
       <c r="D9">
         <v>29</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -10568,17 +10584,17 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -10634,13 +10650,13 @@
       <c r="G23" s="2">
         <v>444</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23">
         <v>817</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23">
         <v>1287</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23">
         <v>6530</v>
       </c>
     </row>
@@ -10836,7 +10852,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10880,58 +10896,58 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="9" t="s">
+      <c r="U35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="8"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="4"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="8"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="4"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -10943,55 +10959,55 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="4"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="4"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -11024,15 +11040,15 @@
       <c r="J40" s="1">
         <v>500000</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -11282,17 +11298,17 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -11564,6 +11580,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="L6:S9"/>
     <mergeCell ref="L36:T37"/>
     <mergeCell ref="U35:AA39"/>
@@ -11572,7 +11589,6 @@
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B57:J57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11581,6 +11597,1301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7326F72D-FE2E-4499-9C3F-B7DCE9FC1F96}">
+  <dimension ref="A1:M71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>198</v>
+      </c>
+      <c r="H5">
+        <v>820</v>
+      </c>
+      <c r="I5">
+        <v>1569</v>
+      </c>
+      <c r="J5">
+        <v>11060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>104</v>
+      </c>
+      <c r="G6">
+        <v>185</v>
+      </c>
+      <c r="H6">
+        <v>807</v>
+      </c>
+      <c r="I6">
+        <v>1578</v>
+      </c>
+      <c r="J6">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>105</v>
+      </c>
+      <c r="G7">
+        <v>191</v>
+      </c>
+      <c r="H7">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <f>AVERAGE(B5:B14)</f>
+        <v>12.25</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:J15" si="0">AVERAGE(C5:C14)</f>
+        <v>14.5</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>25.25</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>36.4</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>103.5</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>817</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>1573.5</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>11180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f>_xlfn.STDEV.P(B5:B14)</f>
+        <v>0.82915619758884995</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:I16" si="1">_xlfn.STDEV.P(C5:C14)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2.3323807579381204</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>5.1478150704935004</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>7.2571803523590805</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="J16">
+        <f>_xlfn.STDEV.P(J5:J14)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <f>_xlfn.STDEV.S(B5:B14)</f>
+        <v>0.9574271077563381</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2.6076809620810599</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.2909944487358056</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>5.9441848333756697</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>8.8881944173155887</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>6.3639610306789276</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>169.70562748477141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <v>500</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13">
+        <v>140</v>
+      </c>
+      <c r="C23" s="13">
+        <v>135</v>
+      </c>
+      <c r="D23" s="13">
+        <v>144</v>
+      </c>
+      <c r="E23" s="13">
+        <v>150</v>
+      </c>
+      <c r="F23" s="13">
+        <v>185</v>
+      </c>
+      <c r="G23" s="13">
+        <v>224</v>
+      </c>
+      <c r="H23" s="13">
+        <v>456</v>
+      </c>
+      <c r="I23" s="13">
+        <v>715</v>
+      </c>
+      <c r="J23" s="13">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13">
+        <v>136</v>
+      </c>
+      <c r="D24" s="13">
+        <v>140</v>
+      </c>
+      <c r="E24" s="13">
+        <v>153</v>
+      </c>
+      <c r="F24" s="13">
+        <v>194</v>
+      </c>
+      <c r="G24" s="13">
+        <v>228</v>
+      </c>
+      <c r="H24" s="13">
+        <v>451</v>
+      </c>
+      <c r="I24" s="13">
+        <v>809</v>
+      </c>
+      <c r="J24" s="13">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13">
+        <v>139</v>
+      </c>
+      <c r="E25" s="13">
+        <v>149</v>
+      </c>
+      <c r="F25" s="13">
+        <v>185</v>
+      </c>
+      <c r="G25" s="13">
+        <v>234</v>
+      </c>
+      <c r="J25" s="13">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" ref="B33:J33" si="3">AVERAGE(B23:B32)</f>
+        <v>140</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="3"/>
+        <v>135.5</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="3"/>
+        <v>150.66666666666666</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="G33" s="1">
+        <f>AVERAGE(G23:G32)</f>
+        <v>228.66666666666666</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>453.5</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>762</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="3"/>
+        <v>4054.6666666666665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:J34" si="4">_xlfn.STDEV.P(B23:B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>2.1602468994692869</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>1.699673171197595</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="G34">
+        <f>_xlfn.STDEV.P(G23:G32)</f>
+        <v>4.1096093353126513</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>178.12417641135136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="e">
+        <f t="shared" ref="B35:J35" si="5">_xlfn.STDEV.S(B23:B32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>2.0816659994661331</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>5.196152422706632</v>
+      </c>
+      <c r="G35">
+        <f>_xlfn.STDEV.S(G23:G32)</f>
+        <v>5.0332229568471671</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>66.468037431535464</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>218.15667153065323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1">
+        <v>100</v>
+      </c>
+      <c r="D40" s="1">
+        <v>500</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H40" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>353</v>
+      </c>
+      <c r="C41">
+        <v>355</v>
+      </c>
+      <c r="D41">
+        <v>350</v>
+      </c>
+      <c r="E41">
+        <v>357</v>
+      </c>
+      <c r="F41">
+        <v>353</v>
+      </c>
+      <c r="G41">
+        <v>352</v>
+      </c>
+      <c r="H41">
+        <v>1060</v>
+      </c>
+      <c r="I41">
+        <v>1907</v>
+      </c>
+      <c r="J41">
+        <v>10590</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>353</v>
+      </c>
+      <c r="C42">
+        <v>354</v>
+      </c>
+      <c r="D42">
+        <v>352</v>
+      </c>
+      <c r="E42">
+        <v>348</v>
+      </c>
+      <c r="F42">
+        <v>356</v>
+      </c>
+      <c r="G42">
+        <v>363</v>
+      </c>
+      <c r="H42">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>351</v>
+      </c>
+      <c r="C43">
+        <v>350</v>
+      </c>
+      <c r="D43">
+        <v>353</v>
+      </c>
+      <c r="E43">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <f>AVERAGE(B41:B50)</f>
+        <v>352.33333333333331</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ref="C51:J51" si="6">AVERAGE(C41:C50)</f>
+        <v>353</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="6"/>
+        <v>351.66666666666669</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="6"/>
+        <v>351.5</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="6"/>
+        <v>354.5</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="6"/>
+        <v>357.5</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="6"/>
+        <v>1050.5</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="6"/>
+        <v>1907</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="6"/>
+        <v>10590</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <f>_xlfn.STDEV.P(B41:B50)</f>
+        <v>0.94280904158206336</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:J52" si="7">_xlfn.STDEV.P(C41:C50)</f>
+        <v>2.1602468994692869</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="7"/>
+        <v>1.247219128924647</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="7"/>
+        <v>3.7749172176353749</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <f>_xlfn.STDEV.S(B41:B50)</f>
+        <v>1.1547005383792517</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:J53" si="8">_xlfn.STDEV.S(C41:C50)</f>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="8"/>
+        <v>1.5275252316519465</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="8"/>
+        <v>4.358898943540674</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="8"/>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="8"/>
+        <v>7.7781745930520225</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="8"/>
+        <v>13.435028842544403</v>
+      </c>
+      <c r="I53" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <v>50</v>
+      </c>
+      <c r="C58" s="1">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1">
+        <v>500</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H58" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>34</v>
+      </c>
+      <c r="D59">
+        <v>42</v>
+      </c>
+      <c r="E59">
+        <v>54</v>
+      </c>
+      <c r="F59">
+        <v>101</v>
+      </c>
+      <c r="G59">
+        <v>158</v>
+      </c>
+      <c r="H59">
+        <v>526</v>
+      </c>
+      <c r="I59">
+        <v>1052</v>
+      </c>
+      <c r="J59">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>29</v>
+      </c>
+      <c r="C60">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>42</v>
+      </c>
+      <c r="E60">
+        <v>57</v>
+      </c>
+      <c r="F60">
+        <v>106</v>
+      </c>
+      <c r="G60">
+        <v>158</v>
+      </c>
+      <c r="H60">
+        <v>537</v>
+      </c>
+      <c r="I60">
+        <v>1071</v>
+      </c>
+      <c r="J60">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>42</v>
+      </c>
+      <c r="E61">
+        <v>53</v>
+      </c>
+      <c r="F61">
+        <v>106</v>
+      </c>
+      <c r="H61">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1">
+        <f>AVERAGE(B59:B68)</f>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" ref="C69:J69" si="9">AVERAGE(C59:C68)</f>
+        <v>32.666666666666664</v>
+      </c>
+      <c r="D69" s="1">
+        <f>AVERAGE(D59:D68)</f>
+        <v>42</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="9"/>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="9"/>
+        <v>104.33333333333333</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="9"/>
+        <v>535.33333333333337</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="9"/>
+        <v>1061.5</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="9"/>
+        <v>5906.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <f>_xlfn.STDEV.P(B59:B68)</f>
+        <v>0.47140452079103168</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:J70" si="10">_xlfn.STDEV.P(C59:C68)</f>
+        <v>0.94280904158206336</v>
+      </c>
+      <c r="D70">
+        <f>_xlfn.STDEV.P(D59:D68)</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="10"/>
+        <v>1.699673171197595</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="10"/>
+        <v>2.3570226039551581</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="10"/>
+        <v>7.0395706939809592</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>9.5</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="10"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <f>_xlfn.STDEV.S(B59:B68)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:J71" si="11">_xlfn.STDEV.S(C59:C68)</f>
+        <v>1.1547005383792517</v>
+      </c>
+      <c r="D71">
+        <f>_xlfn.STDEV.S(D59:D68)</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>2.0816659994661326</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="11"/>
+        <v>2.8867513459481287</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="11"/>
+        <v>8.6216781042517088</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="11"/>
+        <v>13.435028842544403</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>19.091883092036785</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B57:J57"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0788AADB-FA8C-4ED4-A981-E1DCADC2505D}">
   <dimension ref="A1:U71"/>
   <sheetViews>
@@ -11594,10 +12905,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11614,17 +12925,17 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="U3" t="s">
         <v>12</v>
       </c>
@@ -11676,16 +12987,16 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
       <c r="U6" t="s">
         <v>15</v>
       </c>
@@ -11694,14 +13005,14 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
       <c r="U7" t="s">
         <v>16</v>
       </c>
@@ -11710,14 +13021,14 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
       <c r="U8" t="s">
         <v>17</v>
       </c>
@@ -11726,14 +13037,14 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -11895,17 +13206,17 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -12167,28 +13478,28 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -12205,17 +13516,17 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -12434,17 +13745,17 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -12667,7 +13978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08824990-74A8-40EE-8C04-5F1E3002B771}">
   <dimension ref="A1:U71"/>
   <sheetViews>
@@ -12681,11 +13992,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12702,17 +14013,17 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="U3" t="s">
         <v>12</v>
       </c>
@@ -12764,16 +14075,16 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
       <c r="U6" t="s">
         <v>15</v>
       </c>
@@ -12782,14 +14093,14 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
       <c r="U7" t="s">
         <v>16</v>
       </c>
@@ -12798,14 +14109,14 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
       <c r="U8" t="s">
         <v>17</v>
       </c>
@@ -12814,14 +14125,14 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -12983,17 +14294,17 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -13255,28 +14566,28 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -13293,17 +14604,17 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -13522,17 +14833,17 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdnl\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CF5332-EE67-4C4A-86D2-59FCF9256F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F87CF1-A1F6-40AD-A577-C89115A55428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -414,6 +414,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,21 +454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1378,6 +1378,1634 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Polygons!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leaflet 1.9.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$15:$J$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D829-4F09-B704-87791881CC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MBoxGLJS 3.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$33:$J$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$33:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D829-4F09-B704-87791881CC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLibGLJS 4.7.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$51:$J$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$51:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D829-4F09-B704-87791881CC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenLayers 10.2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$69:$J$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$69:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D829-4F09-B704-87791881CC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444999919"/>
+        <c:axId val="445001359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444999919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Feature count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445001359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445001359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6405667412378821E-2"/>
+              <c:y val="0.42257846817365263"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444999919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Excerpt for 50 - 10000 features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leaflet 1.9.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$15:$J$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MBoxGLJS 3.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$33:$J$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLibGLJS 4.7.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$51:$J$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenLayers 10.2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$69:$J$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$69:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444999919"/>
+        <c:axId val="445001359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444999919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Feature count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445001359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445001359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6405667412378821E-2"/>
+              <c:y val="0.42257846817365263"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444999919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Full chart: 50 - 50000 features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Polygons_3070PC!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2123,7 +3751,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4581,7 +6209,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 100000 features</a:t>
+              <a:t>Full chart: 50 - 500000 features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -4627,7 +6255,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$2</c:f>
+              <c:f>Points_3070PC!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4650,17 +6278,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$I$58</c:f>
+              <c:f>Points_3070PC!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -4684,46 +6305,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$15:$J$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$15:$I$15</c:f>
+              <c:f>Points_3070PC!$B$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>245.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2161.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10791.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4731,7 +6351,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000000-39F7-4B3A-8F5C-CD4AAB8D31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4740,7 +6360,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$20</c:f>
+              <c:f>Points_3070PC!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4763,17 +6383,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$I$58</c:f>
+              <c:f>Points_3070PC!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -4797,46 +6410,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$33:$J$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$33:$I$33</c:f>
+              <c:f>Points_3070PC!$B$33:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>135.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>150.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>228.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>453.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4054.6666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4844,7 +6456,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000001-39F7-4B3A-8F5C-CD4AAB8D31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4853,7 +6465,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$38</c:f>
+              <c:f>Points_3070PC!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4876,17 +6488,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$I$58</c:f>
+              <c:f>Points_3070PC!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -4910,46 +6515,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$51:$J$51</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$51:$I$51</c:f>
+              <c:f>Points_3070PC!$B$51:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>352.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>351.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>351.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>354.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>357.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1050.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4957,7 +6561,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000002-39F7-4B3A-8F5C-CD4AAB8D31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4966,7 +6570,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$56</c:f>
+              <c:f>Points_3070PC!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4989,17 +6593,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$I$58</c:f>
+              <c:f>Points_3070PC!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -5023,46 +6620,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$69:$J$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$69:$I$69</c:f>
+              <c:f>Points_3070PC!$B$69:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>62.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>115.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>174.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>580.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5854.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5070,7 +6666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000003-39F7-4B3A-8F5C-CD4AAB8D31DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5083,11 +6679,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="444999919"/>
-        <c:axId val="445001359"/>
+        <c:axId val="1185265359"/>
+        <c:axId val="1185266799"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444999919"/>
+        <c:axId val="1185265359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5186,7 +6782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445001359"/>
+        <c:crossAx val="1185266799"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5194,7 +6790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445001359"/>
+        <c:axId val="1185266799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5241,14 +6837,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.6405667412378821E-2"/>
-              <c:y val="0.42257846817365263"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5309,7 +6897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444999919"/>
+        <c:crossAx val="1185265359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5431,7 +7019,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Excerpt for 50 - 10000 features</a:t>
+              <a:t>Excerpt</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t> 50 - 10000 features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -5477,7 +7073,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$2</c:f>
+              <c:f>Points_3070PC!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5503,11 +7099,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Points_3070PC!$B$4:$J$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Points_3070PC!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5537,31 +7133,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Points_3070PC!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$15:$G$15</c:f>
+              <c:f>Points_3070PC!$B$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>245.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5569,7 +7165,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000000-2D07-45CC-B6DD-56A4722C38CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5578,7 +7174,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$20</c:f>
+              <c:f>Points_3070PC!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5604,11 +7200,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Points_3070PC!$B$4:$J$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Points_3070PC!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5638,31 +7234,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Points_3070PC!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$33:$G$33</c:f>
+              <c:f>Points_3070PC!$B$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>135.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>150.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>228.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5670,7 +7266,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000001-2D07-45CC-B6DD-56A4722C38CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5679,7 +7275,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$38</c:f>
+              <c:f>Points_3070PC!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5705,11 +7301,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Points_3070PC!$B$4:$J$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Points_3070PC!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5739,31 +7335,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Points_3070PC!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$51:$G$51</c:f>
+              <c:f>Points_3070PC!$B$51:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>352.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>351.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>351.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>354.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>357.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5771,7 +7367,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000002-2D07-45CC-B6DD-56A4722C38CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5780,7 +7376,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$56</c:f>
+              <c:f>Points_3070PC!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5806,11 +7402,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Points_3070PC!$B$4:$J$4</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Points_3070PC!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5840,31 +7436,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Points_3070PC!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$69:$G$69</c:f>
+              <c:f>Points_3070PC!$B$69:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>62.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>115.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>174.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5872,7 +7468,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000003-2D07-45CC-B6DD-56A4722C38CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5885,11 +7481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="444999919"/>
-        <c:axId val="445001359"/>
+        <c:axId val="1185265359"/>
+        <c:axId val="1185266799"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444999919"/>
+        <c:axId val="1185265359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5988,7 +7584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445001359"/>
+        <c:crossAx val="1185266799"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5996,7 +7592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445001359"/>
+        <c:axId val="1185266799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6043,14 +7639,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.6405667412378821E-2"/>
-              <c:y val="0.42257846817365263"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6111,7 +7699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444999919"/>
+        <c:crossAx val="1185265359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6279,7 +7867,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$2</c:f>
+              <c:f>Lines!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6305,11 +7893,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6345,37 +7933,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Lines!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$15:$I$15</c:f>
+              <c:f>Lines!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.428571428571427</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.333333333333336</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>277.66666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1266.6666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2596.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6383,7 +7971,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000000-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6392,7 +7980,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$20</c:f>
+              <c:f>Lines!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6418,11 +8006,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6458,37 +8046,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Lines!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$33:$I$33</c:f>
+              <c:f>Lines!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>148.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157.33333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195.33333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>426.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2501.3333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6496,7 +8084,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000001-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6505,7 +8093,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$38</c:f>
+              <c:f>Lines!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6531,11 +8119,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6571,37 +8159,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Lines!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$51:$I$51</c:f>
+              <c:f>Lines!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>354.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>352</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>351.66666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>360</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>515</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1987.6666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3542.3333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6609,7 +8197,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000002-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6618,7 +8206,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$56</c:f>
+              <c:f>Lines!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6644,11 +8232,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6684,37 +8272,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Lines!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$69:$I$69</c:f>
+              <c:f>Lines!$B$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>32.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>678.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6722,7 +8310,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000003-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7129,7 +8717,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$2</c:f>
+              <c:f>Lines!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7155,11 +8743,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7189,31 +8777,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Lines!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$15:$G$15</c:f>
+              <c:f>Lines!$B$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.428571428571427</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.333333333333336</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>277.66666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7221,7 +8809,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4482-405F-85EA-58D5A97C5781}"/>
+              <c16:uniqueId val="{00000000-8456-456C-A35C-5BE0499180A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7230,7 +8818,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$20</c:f>
+              <c:f>Lines!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7256,11 +8844,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7290,31 +8878,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Lines!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$33:$G$33</c:f>
+              <c:f>Lines!$B$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>148.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157.33333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195.33333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>426.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7322,7 +8910,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4482-405F-85EA-58D5A97C5781}"/>
+              <c16:uniqueId val="{00000001-8456-456C-A35C-5BE0499180A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7331,7 +8919,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$38</c:f>
+              <c:f>Lines!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7357,11 +8945,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7391,31 +8979,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Lines!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$51:$G$51</c:f>
+              <c:f>Lines!$B$51:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>354.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>352</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>351.66666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>360</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>515</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7423,7 +9011,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4482-405F-85EA-58D5A97C5781}"/>
+              <c16:uniqueId val="{00000002-8456-456C-A35C-5BE0499180A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7432,7 +9020,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$56</c:f>
+              <c:f>Lines!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7458,11 +9046,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7492,31 +9080,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Lines!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$69:$G$69</c:f>
+              <c:f>Lines!$B$69:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7524,7 +9112,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4482-405F-85EA-58D5A97C5781}"/>
+              <c16:uniqueId val="{00000003-8456-456C-A35C-5BE0499180A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7885,7 +9473,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 50000 features</a:t>
+              <a:t>Full chart: 50 - 100000 features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -7931,7 +9519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$2</c:f>
+              <c:f>Lines_3070PC!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7957,14 +9545,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -7985,6 +9573,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7994,34 +9585,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$15:$H$15</c:f>
+              <c:f>Lines_3070PC!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>28.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>159.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>277.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1266.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2596.6666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8029,7 +9623,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D829-4F09-B704-87791881CC17}"/>
+              <c16:uniqueId val="{00000000-BD39-4482-AE34-37E5C942CDFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8038,7 +9632,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$20</c:f>
+              <c:f>Lines_3070PC!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8064,14 +9658,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -8092,6 +9686,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8101,34 +9698,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$33:$H$33</c:f>
+              <c:f>Lines_3070PC!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>148.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>157.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>175.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>195.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>296.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>426.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1345.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2501.3333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8136,7 +9736,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D829-4F09-B704-87791881CC17}"/>
+              <c16:uniqueId val="{00000001-BD39-4482-AE34-37E5C942CDFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8145,7 +9745,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$38</c:f>
+              <c:f>Lines_3070PC!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8171,14 +9771,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -8199,6 +9799,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8208,34 +9811,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$51:$H$51</c:f>
+              <c:f>Lines_3070PC!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>354.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>351.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1987.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3542.3333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8243,7 +9849,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D829-4F09-B704-87791881CC17}"/>
+              <c16:uniqueId val="{00000002-BD39-4482-AE34-37E5C942CDFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8252,7 +9858,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$56</c:f>
+              <c:f>Lines_3070PC!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8278,14 +9884,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -8306,6 +9912,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8315,34 +9924,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$69:$H$69</c:f>
+              <c:f>Lines_3070PC!$B$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>32.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>51.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>59.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>187.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>678.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8350,7 +9962,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D829-4F09-B704-87791881CC17}"/>
+              <c16:uniqueId val="{00000003-BD39-4482-AE34-37E5C942CDFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8757,7 +10369,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$2</c:f>
+              <c:f>Lines_3070PC!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8783,11 +10395,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8817,31 +10429,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$15:$G$15</c:f>
+              <c:f>Lines_3070PC!$B$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>28.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>159.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>277.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8849,7 +10461,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+              <c16:uniqueId val="{00000000-4482-405F-85EA-58D5A97C5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8858,7 +10470,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$20</c:f>
+              <c:f>Lines_3070PC!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8884,11 +10496,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8918,31 +10530,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$33:$G$33</c:f>
+              <c:f>Lines_3070PC!$B$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>148.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>157.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>175.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>195.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>296.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>426.33333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8950,7 +10562,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+              <c16:uniqueId val="{00000001-4482-405F-85EA-58D5A97C5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8959,7 +10571,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$38</c:f>
+              <c:f>Lines_3070PC!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8985,11 +10597,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9019,31 +10631,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$51:$G$51</c:f>
+              <c:f>Lines_3070PC!$B$51:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>354.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>351.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9051,7 +10663,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+              <c16:uniqueId val="{00000002-4482-405F-85EA-58D5A97C5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9060,7 +10672,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$56</c:f>
+              <c:f>Lines_3070PC!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9086,11 +10698,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9120,31 +10732,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$69:$G$69</c:f>
+              <c:f>Lines_3070PC!$B$69:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>32.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>51.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>59.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>187.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9152,7 +10764,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+              <c16:uniqueId val="{00000003-4482-405F-85EA-58D5A97C5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9598,6 +11210,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11466,6 +13158,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -15715,6 +18439,85 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A149B23-AA38-CEBE-2CA1-6AE174D522F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842DB346-8710-4C44-AA83-07625AA996F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -15792,7 +18595,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15841,9 +18644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15873,7 +18676,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15954,7 +18757,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16300,7 +19103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -16310,24 +19113,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -16412,16 +19215,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="15"/>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
       <c r="U6" t="s">
         <v>11</v>
       </c>
@@ -16431,14 +19234,14 @@
         <v>3</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
       <c r="U7" t="s">
         <v>12</v>
       </c>
@@ -16448,14 +19251,14 @@
         <v>4</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
       <c r="U8" t="s">
         <v>13</v>
       </c>
@@ -16465,14 +19268,14 @@
         <v>5</v>
       </c>
       <c r="J9" s="15"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -16628,10 +19431,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
         <v>6</v>
@@ -16973,61 +19776,61 @@
       <c r="L35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U35" s="33" t="s">
+      <c r="U35" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L36" s="32" t="s">
+      <c r="L36" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -17040,24 +19843,24 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -17073,22 +19876,22 @@
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="21"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -17122,15 +19925,15 @@
       <c r="J40" s="13">
         <v>500000</v>
       </c>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -17377,10 +20180,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -17627,12 +20430,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="L6:S9"/>
-    <mergeCell ref="L36:T37"/>
-    <mergeCell ref="U35:AA39"/>
-    <mergeCell ref="L38:T40"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
@@ -17640,6 +20437,12 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="L6:S9"/>
+    <mergeCell ref="L36:T37"/>
+    <mergeCell ref="U35:AA39"/>
+    <mergeCell ref="L38:T40"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17651,8 +20454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7326F72D-FE2E-4499-9C3F-B7DCE9FC1F96}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17661,18 +20464,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
       <c r="L1" s="5" t="s">
         <v>27</v>
       </c>
@@ -17681,10 +20484,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -18025,10 +20828,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
@@ -18337,10 +21140,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -18646,10 +21449,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -19003,6 +21806,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19020,24 +21824,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
@@ -19126,16 +21930,16 @@
       <c r="J6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
       <c r="U6" t="s">
         <v>11</v>
       </c>
@@ -19147,14 +21951,14 @@
       <c r="J7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
       <c r="U7" t="s">
         <v>12</v>
       </c>
@@ -19166,14 +21970,14 @@
       <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
       <c r="U8" t="s">
         <v>13</v>
       </c>
@@ -19185,14 +21989,14 @@
       <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -19358,10 +22162,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
@@ -19647,10 +22451,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>19</v>
       </c>
@@ -19914,10 +22718,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="7" t="s">
         <v>19</v>
       </c>
@@ -20184,16 +22988,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L6:S9"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B39:J39"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="L6:S9"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20206,7 +23010,7 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20215,18 +23019,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
       <c r="L1" s="5" t="s">
         <v>27</v>
       </c>
@@ -20235,10 +23039,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
@@ -20620,10 +23424,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
@@ -20984,10 +23788,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>19</v>
       </c>
@@ -21323,10 +24127,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="7" t="s">
         <v>19</v>
       </c>
@@ -21707,24 +24511,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
@@ -21819,16 +24623,16 @@
       <c r="J6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
       <c r="U6" t="s">
         <v>11</v>
       </c>
@@ -21843,14 +24647,14 @@
       <c r="J7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
       <c r="U7" t="s">
         <v>12</v>
       </c>
@@ -21865,14 +24669,14 @@
       <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
       <c r="U8" t="s">
         <v>13</v>
       </c>
@@ -21887,14 +24691,14 @@
       <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -22075,10 +24879,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -22394,10 +25198,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
@@ -22691,10 +25495,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="7" t="s">
         <v>21</v>
       </c>
@@ -22991,16 +25795,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L6:S9"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B39:J39"/>
     <mergeCell ref="B57:J57"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="L6:S9"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23013,7 +25817,7 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23022,18 +25826,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
       <c r="L1" s="5" t="s">
         <v>27</v>
       </c>
@@ -23042,10 +25846,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
@@ -23472,10 +26276,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -23857,10 +26661,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
@@ -24232,10 +27036,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="7" t="s">
         <v>21</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdnl\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F87CF1-A1F6-40AD-A577-C89115A55428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF9AAA-E185-4E81-A8D9-26F652632574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -414,21 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,6 +439,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,7 +514,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 500000 features (LINEAR Y)</a:t>
+              <a:t>Full chart: 50 - 500000 point features (LINEAR Y)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1332,7 +1332,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 50000 features</a:t>
+              <a:t>Excerpt for 50 - 10000 line features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1378,7 +1378,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$2</c:f>
+              <c:f>Lines_3070PC!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1404,14 +1404,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1429,9 +1429,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,34 +1438,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$15:$H$15</c:f>
+              <c:f>Lines_3070PC!$B$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>28.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>159.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>277.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,7 +1470,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D829-4F09-B704-87791881CC17}"/>
+              <c16:uniqueId val="{00000000-4482-405F-85EA-58D5A97C5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1485,7 +1479,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$20</c:f>
+              <c:f>Lines_3070PC!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1511,14 +1505,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1536,9 +1530,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,34 +1539,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$33:$H$33</c:f>
+              <c:f>Lines_3070PC!$B$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>148.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>157.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>175.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>195.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>296.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>426.33333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,7 +1571,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D829-4F09-B704-87791881CC17}"/>
+              <c16:uniqueId val="{00000001-4482-405F-85EA-58D5A97C5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1592,7 +1580,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$38</c:f>
+              <c:f>Lines_3070PC!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1618,14 +1606,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1643,9 +1631,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,34 +1640,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$51:$H$51</c:f>
+              <c:f>Lines_3070PC!$B$51:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>354.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>351.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,7 +1672,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D829-4F09-B704-87791881CC17}"/>
+              <c16:uniqueId val="{00000002-4482-405F-85EA-58D5A97C5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1699,7 +1681,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$56</c:f>
+              <c:f>Lines_3070PC!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1725,14 +1707,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1750,9 +1732,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,34 +1741,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$69:$H$69</c:f>
+              <c:f>Lines_3070PC!$B$69:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>32.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>51.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>59.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>187.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +1773,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D829-4F09-B704-87791881CC17}"/>
+              <c16:uniqueId val="{00000003-4482-405F-85EA-58D5A97C5781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2158,7 +2134,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Excerpt for 50 - 10000 features</a:t>
+              <a:t>Full chart: 50 - 100000 line features (LOG Y)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2204,7 +2180,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$2</c:f>
+              <c:f>Lines_3070PC!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2230,14 +2206,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2255,6 +2231,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,31 +2246,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$15:$G$15</c:f>
+              <c:f>Lines_3070PC!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>28.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>159.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>277.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1266.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2596.6666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,7 +2284,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+              <c16:uniqueId val="{00000000-EA6E-4E25-9E04-D58979483AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2305,7 +2293,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$20</c:f>
+              <c:f>Lines_3070PC!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2331,14 +2319,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2356,6 +2344,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,31 +2359,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$33:$G$33</c:f>
+              <c:f>Lines_3070PC!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>148.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>157.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>175.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>195.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>296.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>426.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1345.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2501.3333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +2397,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+              <c16:uniqueId val="{00000001-EA6E-4E25-9E04-D58979483AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2406,7 +2406,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$38</c:f>
+              <c:f>Lines_3070PC!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2432,14 +2432,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2457,6 +2457,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,31 +2472,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$51:$G$51</c:f>
+              <c:f>Lines_3070PC!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>354.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>351.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3542.3333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,7 +2510,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+              <c16:uniqueId val="{00000002-EA6E-4E25-9E04-D58979483AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2507,7 +2519,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons!$A$56</c:f>
+              <c:f>Lines_3070PC!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2533,14 +2545,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2558,6 +2570,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2567,31 +2585,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Lines_3070PC!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons!$B$69:$G$69</c:f>
+              <c:f>Lines_3070PC!$B$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>32.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>51.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>59.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>187.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>678.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,7 +2623,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+              <c16:uniqueId val="{00000003-EA6E-4E25-9E04-D58979483AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2725,6 +2749,7 @@
       <c:valAx>
         <c:axId val="445001359"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2960,7 +2985,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 50000 features</a:t>
+              <a:t>Full chart: 50 - 50000 polygon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -3006,7 +3039,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons_3070PC!$A$2</c:f>
+              <c:f>Polygons!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3032,11 +3065,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:f>Polygons!$B$58:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3069,34 +3102,34 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons_3070PC!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Polygons!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons_3070PC!$B$15:$H$15</c:f>
+              <c:f>Polygons!$B$15:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>338.66666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1597</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,7 +3137,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2AE-4833-BF78-844FB6F92644}"/>
+              <c16:uniqueId val="{00000000-D829-4F09-B704-87791881CC17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3113,7 +3146,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons_3070PC!$A$20</c:f>
+              <c:f>Polygons!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3139,11 +3172,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:f>Polygons!$B$58:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3176,34 +3209,34 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons_3070PC!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Polygons!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons_3070PC!$B$33:$H$33</c:f>
+              <c:f>Polygons!$B$33:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>164.33333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>364.66666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1580.6666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3211,7 +3244,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D2AE-4833-BF78-844FB6F92644}"/>
+              <c16:uniqueId val="{00000001-D829-4F09-B704-87791881CC17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3220,7 +3253,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons_3070PC!$A$38</c:f>
+              <c:f>Polygons!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3246,11 +3279,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:f>Polygons!$B$58:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3283,34 +3316,34 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons_3070PC!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Polygons!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons_3070PC!$B$51:$H$51</c:f>
+              <c:f>Polygons!$B$51:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>357.66666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>357</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>355.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>419.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>638</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2138.8333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3318,7 +3351,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D2AE-4833-BF78-844FB6F92644}"/>
+              <c16:uniqueId val="{00000002-D829-4F09-B704-87791881CC17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3327,7 +3360,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Polygons_3070PC!$A$56</c:f>
+              <c:f>Polygons!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3353,11 +3386,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:f>Polygons!$B$58:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3390,34 +3423,34 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Polygons_3070PC!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Polygons!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Polygons_3070PC!$B$69:$H$69</c:f>
+              <c:f>Polygons!$B$69:$H$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.142857142857146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.333333333333329</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>169</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>293.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1261</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,7 +3458,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D2AE-4833-BF78-844FB6F92644}"/>
+              <c16:uniqueId val="{00000003-D829-4F09-B704-87791881CC17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3786,7 +3819,1635 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Excerpt for 50 - 10000 features</a:t>
+              <a:t>Excerpt for 50 - 10000 polygon features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leaflet 1.9.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$15:$J$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MBoxGLJS 3.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$33:$J$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLibGLJS 4.7.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$51:$J$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenLayers 10.2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$69:$J$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$69:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CBE7-40B4-A753-5C9BB51F3A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444999919"/>
+        <c:axId val="445001359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444999919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Feature count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445001359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445001359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6405667412378821E-2"/>
+              <c:y val="0.42257846817365263"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444999919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Full chart: 50 - 50000 polygon features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons_3070PC!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leaflet 1.9.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$15:$J$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2AE-4833-BF78-844FB6F92644}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons_3070PC!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MBoxGLJS 3.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$33:$J$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$33:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>164.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>364.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1580.6666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2AE-4833-BF78-844FB6F92644}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons_3070PC!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLibGLJS 4.7.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$51:$J$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$51:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>357.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>355.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>419.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2138.8333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2AE-4833-BF78-844FB6F92644}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons_3070PC!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenLayers 10.2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$69:$J$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$69:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D2AE-4833-BF78-844FB6F92644}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444999919"/>
+        <c:axId val="445001359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444999919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Feature count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445001359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445001359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6405667412378821E-2"/>
+              <c:y val="0.42257846817365263"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444999919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Excerpt for 50 - 10000 polygon features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -4553,6 +6214,841 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Full chart: 50 - 50000 polygon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>features (LOG Y)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons_3070PC!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leaflet 1.9.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$15:$J$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B31-4C2C-AB99-7EFA563A4158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons_3070PC!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MBoxGLJS 3.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$33:$J$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$33:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>164.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>364.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1580.6666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B31-4C2C-AB99-7EFA563A4158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons_3070PC!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLibGLJS 4.7.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$51:$J$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$51:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>357.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>355.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>419.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2138.8333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B31-4C2C-AB99-7EFA563A4158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons_3070PC!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenLayers 10.2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons_3070PC!$B$69:$J$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons_3070PC!$B$69:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B31-4C2C-AB99-7EFA563A4158}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444999919"/>
+        <c:axId val="445001359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444999919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Feature count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445001359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445001359"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6405667412378821E-2"/>
+              <c:y val="0.42257846817365263"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444999919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4588,7 +7084,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Excerpt for 50 - 10000 features</a:t>
+              <a:t>Excerpt for 50 - 10000 point features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -5390,7 +7886,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 500000 features (LOG Y)</a:t>
+              <a:t>Full chart: 50 - 500000 point features (LOG Y)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -6209,7 +8705,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 500000 features</a:t>
+              <a:t>Full chart: 50 - 500000 point</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -7027,7 +9531,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t> 50 - 10000 features</a:t>
+              <a:t> 50 - 10000 point features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -7821,7 +10325,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 100000 features</a:t>
+              <a:t>Full chart: 50 - 500000 point features (LOG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> Y)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -7867,7 +10375,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$2</c:f>
+              <c:f>Points_3070PC!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7890,17 +10398,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$I$58</c:f>
+              <c:f>Points_3070PC!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -7924,46 +10425,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$15:$J$15</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$15:$I$15</c:f>
+              <c:f>Points_3070PC!$B$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>245.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2161.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10791.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7971,7 +10471,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000000-90E5-40F5-8EC1-4ED298BED518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7980,7 +10480,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$20</c:f>
+              <c:f>Points_3070PC!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8003,17 +10503,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$I$58</c:f>
+              <c:f>Points_3070PC!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -8037,46 +10530,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$33:$J$33</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$33:$I$33</c:f>
+              <c:f>Points_3070PC!$B$33:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>135.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>150.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>228.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>453.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4054.6666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8084,7 +10576,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000001-90E5-40F5-8EC1-4ED298BED518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8093,7 +10585,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$38</c:f>
+              <c:f>Points_3070PC!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8116,17 +10608,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$I$58</c:f>
+              <c:f>Points_3070PC!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -8150,46 +10635,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$51:$J$51</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$51:$I$51</c:f>
+              <c:f>Points_3070PC!$B$51:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>352.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>351.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>351.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>354.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>357.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1050.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8197,7 +10681,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000002-90E5-40F5-8EC1-4ED298BED518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8206,7 +10690,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines!$A$56</c:f>
+              <c:f>Points_3070PC!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8229,17 +10713,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$58:$I$58</c:f>
+              <c:f>Points_3070PC!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -8263,46 +10740,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Lines!$B$69:$J$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Lines!$B$69:$I$69</c:f>
+              <c:f>Points_3070PC!$B$69:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>62.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>115.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>174.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>580.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5854.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8310,7 +10786,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CA50-4931-8A8C-D20D9044E140}"/>
+              <c16:uniqueId val="{00000003-90E5-40F5-8EC1-4ED298BED518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8323,11 +10799,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="444999919"/>
-        <c:axId val="445001359"/>
+        <c:axId val="1185265359"/>
+        <c:axId val="1185266799"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444999919"/>
+        <c:axId val="1185265359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8426,7 +10902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445001359"/>
+        <c:crossAx val="1185266799"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8434,8 +10910,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445001359"/>
+        <c:axId val="1185266799"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8481,14 +10958,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.6405667412378821E-2"/>
-              <c:y val="0.42257846817365263"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8549,7 +11018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444999919"/>
+        <c:crossAx val="1185265359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8671,7 +11140,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Excerpt for 50 - 10000 features</a:t>
+              <a:t>Full chart: 50 - 100000 line features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -8747,10 +11216,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -8768,6 +11237,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8781,10 +11256,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$15:$G$15</c:f>
+              <c:f>Lines!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8801,6 +11276,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8809,7 +11290,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000000-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8848,10 +11329,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -8869,6 +11350,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8882,10 +11369,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$33:$G$33</c:f>
+              <c:f>Lines!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8902,6 +11389,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8910,7 +11403,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000001-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8949,10 +11442,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -8970,6 +11463,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,10 +11482,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$51:$G$51</c:f>
+              <c:f>Lines!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9003,6 +11502,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9011,7 +11516,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000002-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9050,10 +11555,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$58:$G$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -9071,6 +11576,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9084,10 +11595,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines!$B$69:$G$69</c:f>
+              <c:f>Lines!$B$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9104,6 +11615,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9112,7 +11629,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8456-456C-A35C-5BE0499180A6}"/>
+              <c16:uniqueId val="{00000003-CA50-4931-8A8C-D20D9044E140}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9473,7 +11990,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 100000 features</a:t>
+              <a:t>Excerpt for 50 - 10000 line features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -9519,7 +12036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$2</c:f>
+              <c:f>Lines!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9545,14 +12062,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -9570,12 +12087,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9585,37 +12096,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Lines!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$15:$I$15</c:f>
+              <c:f>Lines!$B$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.428571428571427</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.333333333333336</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>277.66666666666669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1266.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2596.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9623,7 +12128,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000000-8456-456C-A35C-5BE0499180A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9632,7 +12137,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$20</c:f>
+              <c:f>Lines!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9658,14 +12163,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -9683,12 +12188,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9698,37 +12197,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Lines!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$33:$I$33</c:f>
+              <c:f>Lines!$B$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>148.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157.33333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195.33333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>426.33333333333331</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1345.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2501.3333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9736,7 +12229,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000001-8456-456C-A35C-5BE0499180A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9745,7 +12238,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$38</c:f>
+              <c:f>Lines!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9771,14 +12264,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -9796,12 +12289,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9811,37 +12298,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Lines!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$51:$I$51</c:f>
+              <c:f>Lines!$B$51:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>354.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>352</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>351.66666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>360</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1987.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3542.3333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9849,7 +12330,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000002-8456-456C-A35C-5BE0499180A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9858,7 +12339,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$56</c:f>
+              <c:f>Lines!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9884,14 +12365,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -9909,12 +12390,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9924,37 +12399,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Lines!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$69:$I$69</c:f>
+              <c:f>Lines!$B$69:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.666666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.66666666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>678.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9962,7 +12431,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000003-8456-456C-A35C-5BE0499180A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10323,7 +12792,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
-              <a:t>Excerpt for 50 - 10000 features</a:t>
+              <a:t>Full chart: 50 - 100000 line features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -10399,10 +12868,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -10420,6 +12889,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10433,10 +12908,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$15:$G$15</c:f>
+              <c:f>Lines_3070PC!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>24.333333333333332</c:v>
                 </c:pt>
@@ -10454,6 +12929,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>277.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1266.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2596.6666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10461,7 +12942,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4482-405F-85EA-58D5A97C5781}"/>
+              <c16:uniqueId val="{00000000-BD39-4482-AE34-37E5C942CDFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10500,10 +12981,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -10521,6 +13002,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10534,10 +13021,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$33:$G$33</c:f>
+              <c:f>Lines_3070PC!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>148.66666666666666</c:v>
                 </c:pt>
@@ -10555,6 +13042,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>426.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1345.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2501.3333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10562,7 +13055,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4482-405F-85EA-58D5A97C5781}"/>
+              <c16:uniqueId val="{00000001-BD39-4482-AE34-37E5C942CDFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10601,10 +13094,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -10622,6 +13115,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10635,10 +13134,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$51:$G$51</c:f>
+              <c:f>Lines_3070PC!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>354.33333333333331</c:v>
                 </c:pt>
@@ -10656,6 +13155,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3542.3333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10663,7 +13168,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4482-405F-85EA-58D5A97C5781}"/>
+              <c16:uniqueId val="{00000002-BD39-4482-AE34-37E5C942CDFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10702,10 +13207,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$G$58</c:f>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -10723,6 +13228,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10736,10 +13247,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$69:$G$69</c:f>
+              <c:f>Lines_3070PC!$B$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>32.666666666666664</c:v>
                 </c:pt>
@@ -10757,6 +13268,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>187.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>678.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10764,7 +13281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4482-405F-85EA-58D5A97C5781}"/>
+              <c16:uniqueId val="{00000003-BD39-4482-AE34-37E5C942CDFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11290,6 +13807,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14190,6 +16827,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -18511,6 +22696,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7759E8F8-E467-467A-8916-4D0ADCF88166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18673,6 +22896,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B8B4FF-485C-4FC2-8308-9F7FF1E142AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18830,6 +23091,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A032A66-6EA9-4B78-873A-2B21E12FA69C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19104,7 +23403,7 @@
   <dimension ref="A1:AB71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="AC45" sqref="AC45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19113,24 +23412,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -19215,16 +23514,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="15"/>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="U6" t="s">
         <v>11</v>
       </c>
@@ -19234,14 +23533,14 @@
         <v>3</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
       <c r="U7" t="s">
         <v>12</v>
       </c>
@@ -19251,14 +23550,14 @@
         <v>4</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
       <c r="U8" t="s">
         <v>13</v>
       </c>
@@ -19268,14 +23567,14 @@
         <v>5</v>
       </c>
       <c r="J9" s="15"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -19431,10 +23730,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
         <v>6</v>
@@ -19776,61 +24075,61 @@
       <c r="L35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U35" s="24" t="s">
+      <c r="U35" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -19843,24 +24142,24 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -19876,22 +24175,22 @@
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="21"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -19925,15 +24224,15 @@
       <c r="J40" s="13">
         <v>500000</v>
       </c>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -20180,10 +24479,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -20430,6 +24729,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="L6:S9"/>
+    <mergeCell ref="L36:T37"/>
+    <mergeCell ref="U35:AA39"/>
+    <mergeCell ref="L38:T40"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
@@ -20437,12 +24742,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="L6:S9"/>
-    <mergeCell ref="L36:T37"/>
-    <mergeCell ref="U35:AA39"/>
-    <mergeCell ref="L38:T40"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20454,8 +24753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7326F72D-FE2E-4499-9C3F-B7DCE9FC1F96}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH35" sqref="AH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20464,18 +24763,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
       <c r="L1" s="5" t="s">
         <v>27</v>
       </c>
@@ -20484,10 +24783,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -20828,10 +25127,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
@@ -21140,10 +25439,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -21449,10 +25748,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -21815,7 +26114,7 @@
   <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21824,24 +26123,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
@@ -21930,16 +26229,16 @@
       <c r="J6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="U6" t="s">
         <v>11</v>
       </c>
@@ -21951,14 +26250,14 @@
       <c r="J7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
       <c r="U7" t="s">
         <v>12</v>
       </c>
@@ -21970,14 +26269,14 @@
       <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
       <c r="U8" t="s">
         <v>13</v>
       </c>
@@ -21989,14 +26288,14 @@
       <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -22162,10 +26461,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
@@ -22451,10 +26750,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="7" t="s">
         <v>19</v>
       </c>
@@ -22718,10 +27017,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="7" t="s">
         <v>19</v>
       </c>
@@ -22988,16 +27287,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="B57:J57"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="L6:S9"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23009,8 +27308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED8BAC0-5818-4841-9C2B-B960F1215CE6}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA46" sqref="AA46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23019,18 +27318,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
       <c r="L1" s="5" t="s">
         <v>27</v>
       </c>
@@ -23039,10 +27338,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
@@ -23424,10 +27723,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
@@ -23788,10 +28087,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="7" t="s">
         <v>19</v>
       </c>
@@ -24127,10 +28426,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="7" t="s">
         <v>19</v>
       </c>
@@ -24501,8 +28800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FEB5D-2983-4E4D-A643-6C81170FF3BE}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24511,24 +28810,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
@@ -24623,16 +28922,16 @@
       <c r="J6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="U6" t="s">
         <v>11</v>
       </c>
@@ -24647,14 +28946,14 @@
       <c r="J7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
       <c r="U7" t="s">
         <v>12</v>
       </c>
@@ -24669,14 +28968,14 @@
       <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
       <c r="U8" t="s">
         <v>13</v>
       </c>
@@ -24691,14 +28990,14 @@
       <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -24879,10 +29178,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -25198,10 +29497,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
@@ -25495,10 +29794,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="7" t="s">
         <v>21</v>
       </c>
@@ -25795,16 +30094,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="L6:S9"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25816,8 +30115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E82C8D7-5142-4E64-8336-C89BD50EFDF2}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25826,18 +30125,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
       <c r="L1" s="5" t="s">
         <v>27</v>
       </c>
@@ -25846,10 +30145,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
@@ -26276,10 +30575,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -26661,10 +30960,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
@@ -27036,10 +31335,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="7" t="s">
         <v>21</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdnl\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balladaniel\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF9AAA-E185-4E81-A8D9-26F652632574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11364D34-E70A-4FAD-90B8-80F566D67E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="35">
   <si>
     <t>Run #</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Geojson load &lt;-&gt; LCP (time = ON TIMELINE)</t>
+  </si>
+  <si>
+    <t>weaker PC (iGPU, OpenGL 4.4)</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -624,31 +627,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>39.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>57.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>82.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>203.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1570.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3059.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15382.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,31 +942,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>63.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>64.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>85.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>183.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>269.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>888.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1496.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7696.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,7 +1303,857 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>Full chart: 50 - 100000 line features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lines_3070PC!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leaflet 1.9.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines_3070PC!$B$15:$J$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines_3070PC!$B$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>277.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1266.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2596.6666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD39-4482-AE34-37E5C942CDFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lines_3070PC!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MBoxGLJS 3.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines_3070PC!$B$33:$J$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines_3070PC!$B$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>148.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>426.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1345.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2501.3333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD39-4482-AE34-37E5C942CDFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lines_3070PC!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLibGLJS 4.7.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines_3070PC!$B$51:$J$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines_3070PC!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>354.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>351.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1987.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3542.3333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD39-4482-AE34-37E5C942CDFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lines_3070PC!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenLayers 10.2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Lines_3070PC!$B$69:$J$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Lines_3070PC!$B$69:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>678.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BD39-4482-AE34-37E5C942CDFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444999919"/>
+        <c:axId val="445001359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444999919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Feature count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445001359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445001359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6405667412378821E-2"/>
+              <c:y val="0.42257846817365263"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444999919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2099,10 +2952,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2950,10 +3803,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3784,10 +4637,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4586,10 +5439,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5412,10 +6265,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6214,10 +7067,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7052,7 +7905,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7199,22 +8052,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>39.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>57.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>82.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>203.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7502,22 +8355,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>63.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>64.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>85.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>183.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>269.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7854,7 +8707,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7996,31 +8849,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>39.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>57.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>82.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>203.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>364.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1570.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3059.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15382.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8311,31 +9164,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>63.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>64.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>85.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>183.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>269.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>888.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1496.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7696.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8673,7 +9526,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9491,7 +10344,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10293,7 +11146,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11108,7 +11961,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11261,28 +12114,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>39.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>42.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>247.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1881.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3873.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11374,28 +12227,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>253.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>259.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>306.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>476.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>634.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1733.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11487,28 +12340,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>385.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>387.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>511.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>696.85714285714289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2467.8571428571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4622.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11600,28 +12453,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>87.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>174.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>279.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>902.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1751.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11958,7 +12811,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12105,22 +12958,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>39.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>42.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>247.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12206,22 +13059,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>253.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>259.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>306.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>476.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>634.66666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12307,22 +13160,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>385.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>387.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>511.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>696.85714285714289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12408,22 +13261,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>87.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>174.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>279.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12760,7 +13613,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12793,6 +13646,18 @@
             <a:r>
               <a:rPr lang="sk-SK"/>
               <a:t>Full chart: 50 - 100000 line features</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>(LOG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> Y)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -12838,7 +13703,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$2</c:f>
+              <c:f>Lines!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12864,11 +13729,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12904,37 +13769,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$15:$J$15</c15:sqref>
+                    <c15:sqref>Lines!$B$15:$J$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$15:$I$15</c:f>
+              <c:f>Lines!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24.333333333333332</c:v>
+                  <c:v>39.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.428571428571427</c:v>
+                  <c:v>42.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.333333333333336</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159.66666666666666</c:v>
+                  <c:v>247.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>277.66666666666669</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1266.6666666666667</c:v>
+                  <c:v>1881.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2596.6666666666665</c:v>
+                  <c:v>3873.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12942,7 +13807,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000000-9A42-451E-9423-58A99894276D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12951,7 +13816,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$20</c:f>
+              <c:f>Lines!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12977,11 +13842,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13017,37 +13882,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$33:$J$33</c15:sqref>
+                    <c15:sqref>Lines!$B$33:$J$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$33:$I$33</c:f>
+              <c:f>Lines!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>148.66666666666666</c:v>
+                  <c:v>253.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157.33333333333334</c:v>
+                  <c:v>259.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175.66666666666666</c:v>
+                  <c:v>306.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195.33333333333334</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296.75</c:v>
+                  <c:v>476.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>426.33333333333331</c:v>
+                  <c:v>634.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345.3333333333333</c:v>
+                  <c:v>1733.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2501.3333333333335</c:v>
+                  <c:v>3170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13055,7 +13920,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000001-9A42-451E-9423-58A99894276D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13064,7 +13929,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$38</c:f>
+              <c:f>Lines!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13090,11 +13955,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13130,37 +13995,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$51:$J$51</c15:sqref>
+                    <c15:sqref>Lines!$B$51:$J$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$51:$I$51</c:f>
+              <c:f>Lines!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>354.33333333333331</c:v>
+                  <c:v>385.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>352</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>355</c:v>
+                  <c:v>387.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>351.66666666666669</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>360</c:v>
+                  <c:v>511.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>515</c:v>
+                  <c:v>696.85714285714289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1987.6666666666667</c:v>
+                  <c:v>2467.8571428571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3542.3333333333335</c:v>
+                  <c:v>4622.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13168,7 +14033,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000002-9A42-451E-9423-58A99894276D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13177,7 +14042,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lines_3070PC!$A$56</c:f>
+              <c:f>Lines!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13203,11 +14068,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$58:$J$58</c15:sqref>
+                    <c15:sqref>Lines!$B$58:$J$58</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$58:$I$58</c:f>
+              <c:f>Lines!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13243,37 +14108,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Lines_3070PC!$B$69:$J$69</c15:sqref>
+                    <c15:sqref>Lines!$B$69:$J$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Lines_3070PC!$B$69:$I$69</c:f>
+              <c:f>Lines!$B$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>32.666666666666664</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.25</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.666666666666664</c:v>
+                  <c:v>87.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.6</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>174.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.66666666666666</c:v>
+                  <c:v>279.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>678.5</c:v>
+                  <c:v>902.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1301</c:v>
+                  <c:v>1751.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13281,7 +14146,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BD39-4482-AE34-37E5C942CDFC}"/>
+              <c16:uniqueId val="{00000003-9A42-451E-9423-58A99894276D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13407,6 +14272,7 @@
       <c:valAx>
         <c:axId val="445001359"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -13927,6 +14793,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18375,6 +19281,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -22810,6 +24232,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94695F4-E712-462C-BDDB-D5F6C87D4FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23402,8 +24862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC45" sqref="AC45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23504,7 +24964,33 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>202</v>
+      </c>
+      <c r="G5">
+        <v>364</v>
+      </c>
+      <c r="H5">
+        <v>1638</v>
+      </c>
+      <c r="I5">
+        <v>3003</v>
+      </c>
+      <c r="J5" s="15">
+        <v>16080</v>
+      </c>
       <c r="U5" t="s">
         <v>10</v>
       </c>
@@ -23513,9 +24999,35 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="B6">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>208</v>
+      </c>
+      <c r="G6">
+        <v>376</v>
+      </c>
+      <c r="H6">
+        <v>1572</v>
+      </c>
+      <c r="I6">
+        <v>3047</v>
+      </c>
+      <c r="J6" s="15">
+        <v>15281</v>
+      </c>
       <c r="L6" s="31" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
@@ -23532,7 +25044,33 @@
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <v>209</v>
+      </c>
+      <c r="G7">
+        <v>369</v>
+      </c>
+      <c r="H7">
+        <v>1562</v>
+      </c>
+      <c r="I7">
+        <v>3005</v>
+      </c>
+      <c r="J7" s="15">
+        <v>15403</v>
+      </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
@@ -23549,7 +25087,33 @@
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <v>202</v>
+      </c>
+      <c r="G8">
+        <v>360</v>
+      </c>
+      <c r="H8">
+        <v>1590</v>
+      </c>
+      <c r="I8">
+        <v>3051</v>
+      </c>
+      <c r="J8" s="15">
+        <v>15089</v>
+      </c>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
@@ -23566,7 +25130,33 @@
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <v>206</v>
+      </c>
+      <c r="G9">
+        <v>350</v>
+      </c>
+      <c r="H9">
+        <v>1564</v>
+      </c>
+      <c r="I9">
+        <v>3094</v>
+      </c>
+      <c r="J9" s="15">
+        <v>15088</v>
+      </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
@@ -23580,153 +25170,283 @@
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>84</v>
+      </c>
+      <c r="F10">
+        <v>193</v>
+      </c>
+      <c r="G10">
+        <v>373</v>
+      </c>
+      <c r="H10">
+        <v>1560</v>
+      </c>
+      <c r="I10">
+        <v>3077</v>
+      </c>
+      <c r="J10" s="15">
+        <v>15045</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>83</v>
+      </c>
+      <c r="F11">
+        <v>205</v>
+      </c>
+      <c r="G11">
+        <v>365</v>
+      </c>
+      <c r="H11">
+        <v>1529</v>
+      </c>
+      <c r="I11">
+        <v>3063</v>
+      </c>
+      <c r="J11" s="15">
+        <v>15677</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>62</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>361</v>
+      </c>
+      <c r="H12">
+        <v>1598</v>
+      </c>
+      <c r="I12">
+        <v>3121</v>
+      </c>
+      <c r="J12" s="15">
+        <v>14920</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <v>203</v>
+      </c>
+      <c r="G13">
+        <v>367</v>
+      </c>
+      <c r="H13">
+        <v>1550</v>
+      </c>
+      <c r="I13">
+        <v>3115</v>
+      </c>
+      <c r="J13" s="15">
+        <v>16097</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <v>203</v>
+      </c>
+      <c r="G14">
+        <v>363</v>
+      </c>
+      <c r="H14">
+        <v>1546</v>
+      </c>
+      <c r="I14">
+        <v>3016</v>
+      </c>
+      <c r="J14" s="15">
+        <v>15144</v>
+      </c>
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="e">
+      <c r="B15" s="1">
         <f>AVERAGE(B5:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="1" t="e">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C15" s="1">
         <f t="shared" ref="C15:J15" si="0">AVERAGE(C5:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="1" t="e">
+        <v>39.9</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="1" t="e">
+        <v>57.7</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="1" t="e">
+        <v>82.2</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="1" t="e">
+        <v>203.1</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="1" t="e">
+        <v>364.8</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="1" t="e">
+        <v>1570.9</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="13" t="e">
+        <v>3059.2</v>
+      </c>
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>15382.4</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="e">
+      <c r="B16">
         <f>_xlfn.STDEV.P(B5:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" t="e">
+        <v>4.9759421218498918</v>
+      </c>
+      <c r="C16">
         <f t="shared" ref="C16:I16" si="1">_xlfn.STDEV.P(C5:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" t="e">
+        <v>4.5265881191025095</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" t="e">
+        <v>6.3411355449950761</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" t="e">
+        <v>6.5543878432695752</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" t="e">
+        <v>4.3</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" t="e">
+        <v>6.8963758598266676</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" t="e">
+        <v>29.429407061644991</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="15" t="e">
+        <v>40.808822575516679</v>
+      </c>
+      <c r="J16" s="15">
         <f>_xlfn.STDEV.P(J5:J14)</f>
-        <v>#DIV/0!</v>
+        <v>406.45250645063072</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="17" t="e">
+      <c r="B17" s="17">
         <f>_xlfn.STDEV.S(B5:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="17" t="e">
+        <v>5.245103536738922</v>
+      </c>
+      <c r="C17" s="17">
         <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="17" t="e">
+        <v>4.7714428286071531</v>
+      </c>
+      <c r="D17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="17" t="e">
+        <v>6.6841437580125111</v>
+      </c>
+      <c r="E17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="17" t="e">
+        <v>6.908931417616861</v>
+      </c>
+      <c r="F17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="17" t="e">
+        <v>4.5325979795746765</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="17" t="e">
+        <v>7.2694184392181231</v>
+      </c>
+      <c r="H17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="17" t="e">
+        <v>31.02131883434717</v>
+      </c>
+      <c r="I17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="18" t="e">
+        <v>43.016275989443805</v>
+      </c>
+      <c r="J17" s="18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>428.43856035609122</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -24548,183 +26268,443 @@
       <c r="A59" s="9">
         <v>1</v>
       </c>
-      <c r="J59" s="15"/>
+      <c r="B59">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>61</v>
+      </c>
+      <c r="D59">
+        <v>85</v>
+      </c>
+      <c r="E59">
+        <v>94</v>
+      </c>
+      <c r="F59">
+        <v>177</v>
+      </c>
+      <c r="G59">
+        <v>280</v>
+      </c>
+      <c r="H59">
+        <v>891</v>
+      </c>
+      <c r="I59">
+        <v>1540</v>
+      </c>
+      <c r="J59" s="15">
+        <v>7500</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>2</v>
       </c>
-      <c r="J60" s="15"/>
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>67</v>
+      </c>
+      <c r="D60">
+        <v>77</v>
+      </c>
+      <c r="E60">
+        <v>95</v>
+      </c>
+      <c r="F60">
+        <v>177</v>
+      </c>
+      <c r="G60">
+        <v>270</v>
+      </c>
+      <c r="H60">
+        <v>880</v>
+      </c>
+      <c r="I60">
+        <v>1488</v>
+      </c>
+      <c r="J60" s="15">
+        <v>7285</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>3</v>
       </c>
-      <c r="J61" s="15"/>
+      <c r="B61">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>71</v>
+      </c>
+      <c r="D61">
+        <v>87</v>
+      </c>
+      <c r="E61">
+        <v>92</v>
+      </c>
+      <c r="F61">
+        <v>176</v>
+      </c>
+      <c r="G61">
+        <v>259</v>
+      </c>
+      <c r="H61">
+        <v>863</v>
+      </c>
+      <c r="I61">
+        <v>1471</v>
+      </c>
+      <c r="J61" s="15">
+        <v>7621</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>4</v>
       </c>
-      <c r="J62" s="15"/>
+      <c r="B62">
+        <v>57</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>91</v>
+      </c>
+      <c r="E62">
+        <v>102</v>
+      </c>
+      <c r="F62">
+        <v>175</v>
+      </c>
+      <c r="G62">
+        <v>290</v>
+      </c>
+      <c r="H62">
+        <v>942</v>
+      </c>
+      <c r="I62">
+        <v>1494</v>
+      </c>
+      <c r="J62" s="15">
+        <v>7580</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>5</v>
       </c>
-      <c r="J63" s="15"/>
+      <c r="B63">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>90</v>
+      </c>
+      <c r="E63">
+        <v>104</v>
+      </c>
+      <c r="F63">
+        <v>198</v>
+      </c>
+      <c r="G63">
+        <v>253</v>
+      </c>
+      <c r="H63">
+        <v>872</v>
+      </c>
+      <c r="I63">
+        <v>1528</v>
+      </c>
+      <c r="J63" s="15">
+        <v>7623</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>6</v>
       </c>
-      <c r="J64" s="15"/>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>85</v>
+      </c>
+      <c r="E64">
+        <v>95</v>
+      </c>
+      <c r="F64">
+        <v>178</v>
+      </c>
+      <c r="G64">
+        <v>262</v>
+      </c>
+      <c r="H64">
+        <v>862</v>
+      </c>
+      <c r="I64">
+        <v>1464</v>
+      </c>
+      <c r="J64" s="15">
+        <v>7774</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>7</v>
       </c>
-      <c r="J65" s="15"/>
+      <c r="B65">
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>51</v>
+      </c>
+      <c r="D65">
+        <v>86</v>
+      </c>
+      <c r="E65">
+        <v>99</v>
+      </c>
+      <c r="F65">
+        <v>191</v>
+      </c>
+      <c r="G65">
+        <v>262</v>
+      </c>
+      <c r="H65">
+        <v>890</v>
+      </c>
+      <c r="I65">
+        <v>1483</v>
+      </c>
+      <c r="J65" s="15">
+        <v>8137</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>8</v>
       </c>
-      <c r="J66" s="15"/>
+      <c r="B66">
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>71</v>
+      </c>
+      <c r="D66">
+        <v>76</v>
+      </c>
+      <c r="E66">
+        <v>102</v>
+      </c>
+      <c r="F66">
+        <v>179</v>
+      </c>
+      <c r="G66">
+        <v>268</v>
+      </c>
+      <c r="H66">
+        <v>897</v>
+      </c>
+      <c r="I66">
+        <v>1466</v>
+      </c>
+      <c r="J66" s="15">
+        <v>8107</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>9</v>
       </c>
-      <c r="J67" s="15"/>
+      <c r="B67">
+        <v>55</v>
+      </c>
+      <c r="C67">
+        <v>60</v>
+      </c>
+      <c r="D67">
+        <v>88</v>
+      </c>
+      <c r="E67">
+        <v>91</v>
+      </c>
+      <c r="F67">
+        <v>192</v>
+      </c>
+      <c r="G67">
+        <v>285</v>
+      </c>
+      <c r="H67">
+        <v>899</v>
+      </c>
+      <c r="I67">
+        <v>1503</v>
+      </c>
+      <c r="J67" s="15">
+        <v>7948</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>10</v>
       </c>
-      <c r="J68" s="15"/>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>62</v>
+      </c>
+      <c r="D68">
+        <v>92</v>
+      </c>
+      <c r="E68">
+        <v>87</v>
+      </c>
+      <c r="F68">
+        <v>194</v>
+      </c>
+      <c r="G68">
+        <v>268</v>
+      </c>
+      <c r="H68">
+        <v>886</v>
+      </c>
+      <c r="I68">
+        <v>1526</v>
+      </c>
+      <c r="J68" s="15">
+        <v>7390</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="1" t="e">
+      <c r="B69" s="1">
         <f>AVERAGE(B59:B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C69" s="1" t="e">
+        <v>63.2</v>
+      </c>
+      <c r="C69" s="1">
         <f t="shared" ref="C69:J69" si="9">AVERAGE(C59:C68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D69" s="1" t="e">
+        <v>64.2</v>
+      </c>
+      <c r="D69" s="1">
         <f>AVERAGE(D59:D68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E69" s="1" t="e">
+        <v>85.7</v>
+      </c>
+      <c r="E69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="1" t="e">
+        <v>96.1</v>
+      </c>
+      <c r="F69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G69" s="1" t="e">
+        <v>183.7</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="1" t="e">
+        <v>269.7</v>
+      </c>
+      <c r="H69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I69" s="1" t="e">
+        <v>888.2</v>
+      </c>
+      <c r="I69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J69" s="13" t="e">
+        <v>1496.3</v>
+      </c>
+      <c r="J69" s="13">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>7696.5</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B70" t="e">
+      <c r="B70">
         <f>_xlfn.STDEV.P(B59:B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C70" t="e">
+        <v>4.8744230427815758</v>
+      </c>
+      <c r="C70">
         <f t="shared" ref="C70:J70" si="10">_xlfn.STDEV.P(C59:C68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D70" t="e">
+        <v>5.8787753826796276</v>
+      </c>
+      <c r="D70">
         <f>_xlfn.STDEV.P(D59:D68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E70" t="e">
+        <v>5.139066063011839</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" t="e">
+        <v>5.2239831546435909</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G70" t="e">
+        <v>8.4386017799159134</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" t="e">
+        <v>11.269871339105872</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I70" t="e">
+        <v>21.807338214463499</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J70" s="15" t="e">
+        <v>25.872958856690513</v>
+      </c>
+      <c r="J70" s="15">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>275.38527556861135</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="17" t="e">
+      <c r="B71" s="17">
         <f>_xlfn.STDEV.S(B59:B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C71" s="17" t="e">
+        <v>5.1380930314660516</v>
+      </c>
+      <c r="C71" s="17">
         <f t="shared" ref="C71:J71" si="11">_xlfn.STDEV.S(C59:C68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D71" s="17" t="e">
+        <v>6.1967733539318672</v>
+      </c>
+      <c r="D71" s="17">
         <f>_xlfn.STDEV.S(D59:D68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E71" s="17" t="e">
+        <v>5.4170512683972678</v>
+      </c>
+      <c r="E71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="17" t="e">
+        <v>5.5065617423417876</v>
+      </c>
+      <c r="F71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G71" s="17" t="e">
+        <v>8.8950672972284046</v>
+      </c>
+      <c r="G71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="17" t="e">
+        <v>11.8794874562088</v>
+      </c>
+      <c r="H71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I71" s="17" t="e">
+        <v>22.986952821111373</v>
+      </c>
+      <c r="I71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J71" s="18" t="e">
+        <v>27.27249326498934</v>
+      </c>
+      <c r="J71" s="18">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>290.28156828997754</v>
       </c>
     </row>
   </sheetData>
@@ -26114,7 +28094,7 @@
   <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26215,6 +28195,30 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>260</v>
+      </c>
+      <c r="G5">
+        <v>434</v>
+      </c>
+      <c r="H5">
+        <v>1894</v>
+      </c>
+      <c r="I5">
+        <v>3745</v>
+      </c>
       <c r="J5" s="11" t="s">
         <v>32</v>
       </c>
@@ -26225,6 +28229,30 @@
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <v>248</v>
+      </c>
+      <c r="G6">
+        <v>435</v>
+      </c>
+      <c r="H6">
+        <v>1892</v>
+      </c>
+      <c r="I6">
+        <v>3911</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>32</v>
@@ -26246,6 +28274,30 @@
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>93</v>
+      </c>
+      <c r="F7">
+        <v>226</v>
+      </c>
+      <c r="G7">
+        <v>430</v>
+      </c>
+      <c r="H7">
+        <v>1858</v>
+      </c>
+      <c r="I7">
+        <v>3867</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>32</v>
@@ -26266,6 +28318,24 @@
       <c r="A8" s="9">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>242</v>
+      </c>
+      <c r="I8">
+        <v>3971</v>
+      </c>
       <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
@@ -26285,6 +28355,12 @@
       <c r="A9" s="9">
         <v>5</v>
       </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>262</v>
+      </c>
       <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
@@ -26341,37 +28417,37 @@
       <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="e">
+      <c r="B15" s="1">
         <f>AVERAGE(B5:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="1" t="e">
+        <v>39.25</v>
+      </c>
+      <c r="C15" s="1">
         <f t="shared" ref="C15:J15" si="0">AVERAGE(C5:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="1" t="e">
+        <v>42.4</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="1" t="e">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="1" t="e">
+        <v>91.5</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="1" t="e">
+        <v>247.6</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="1" t="e">
+        <v>433</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="1" t="e">
+        <v>1881.3333333333333</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3873.5</v>
       </c>
       <c r="J15" s="13" t="e">
         <f t="shared" si="0"/>
@@ -26382,37 +28458,37 @@
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="e">
+      <c r="B16">
         <f>_xlfn.STDEV.P(B5:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" t="e">
+        <v>5.2141634036535525</v>
+      </c>
+      <c r="C16">
         <f t="shared" ref="C16:I16" si="1">_xlfn.STDEV.P(C5:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" t="e">
+        <v>4.0792156108742272</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" t="e">
+        <v>3.9370039370059056</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" t="e">
+        <v>5.024937810560445</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" t="e">
+        <v>13.10877568653915</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" t="e">
+        <v>2.1602468994692869</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" t="e">
+        <v>16.519348924485158</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>82.865855453256501</v>
       </c>
       <c r="J16" s="15" t="e">
         <f>_xlfn.STDEV.P(J5:J14)</f>
@@ -26423,37 +28499,37 @@
       <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="17" t="e">
+      <c r="B17" s="17">
         <f>_xlfn.STDEV.S(B5:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="17" t="e">
+        <v>6.0207972893961479</v>
+      </c>
+      <c r="C17" s="17">
         <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="17" t="e">
+        <v>4.5607017003965513</v>
+      </c>
+      <c r="D17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="17" t="e">
+        <v>4.5460605656619517</v>
+      </c>
+      <c r="E17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="17" t="e">
+        <v>5.8022983951764031</v>
+      </c>
+      <c r="F17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="17" t="e">
+        <v>14.656056768449009</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="17" t="e">
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="H17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="17" t="e">
+        <v>20.231987873991358</v>
+      </c>
+      <c r="I17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>95.685247905132513</v>
       </c>
       <c r="J17" s="18" t="e">
         <f t="shared" si="2"/>
@@ -26528,6 +28604,30 @@
       <c r="A23" s="9">
         <v>1</v>
       </c>
+      <c r="B23">
+        <v>254</v>
+      </c>
+      <c r="C23">
+        <v>257</v>
+      </c>
+      <c r="D23">
+        <v>308</v>
+      </c>
+      <c r="E23">
+        <v>331</v>
+      </c>
+      <c r="F23">
+        <v>464</v>
+      </c>
+      <c r="G23">
+        <v>629</v>
+      </c>
+      <c r="H23">
+        <v>1791</v>
+      </c>
+      <c r="I23">
+        <v>3153</v>
+      </c>
       <c r="J23" s="11" t="s">
         <v>32</v>
       </c>
@@ -26536,6 +28636,30 @@
       <c r="A24" s="9">
         <v>2</v>
       </c>
+      <c r="B24">
+        <v>259</v>
+      </c>
+      <c r="C24">
+        <v>245</v>
+      </c>
+      <c r="D24">
+        <v>301</v>
+      </c>
+      <c r="E24">
+        <v>322</v>
+      </c>
+      <c r="F24">
+        <v>486</v>
+      </c>
+      <c r="G24">
+        <v>631</v>
+      </c>
+      <c r="H24">
+        <v>1719</v>
+      </c>
+      <c r="I24">
+        <v>3198</v>
+      </c>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
@@ -26544,6 +28668,30 @@
       <c r="A25" s="9">
         <v>3</v>
       </c>
+      <c r="B25">
+        <v>242</v>
+      </c>
+      <c r="C25">
+        <v>276</v>
+      </c>
+      <c r="D25">
+        <v>311</v>
+      </c>
+      <c r="E25">
+        <v>316</v>
+      </c>
+      <c r="F25">
+        <v>480</v>
+      </c>
+      <c r="G25">
+        <v>644</v>
+      </c>
+      <c r="H25">
+        <v>1690</v>
+      </c>
+      <c r="I25">
+        <v>3159</v>
+      </c>
       <c r="J25" s="11" t="s">
         <v>32</v>
       </c>
@@ -26552,6 +28700,12 @@
       <c r="A26" s="9">
         <v>4</v>
       </c>
+      <c r="B26">
+        <v>259</v>
+      </c>
+      <c r="C26">
+        <v>260</v>
+      </c>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
@@ -26608,37 +28762,37 @@
       <c r="A33" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="1" t="e">
+      <c r="B33" s="1">
         <f t="shared" ref="B33:J33" si="3">AVERAGE(B23:B32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="1" t="e">
+        <v>253.5</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="1" t="e">
+        <v>259.5</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="1" t="e">
+        <v>306.66666666666669</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="1" t="e">
+        <v>323</v>
+      </c>
+      <c r="F33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="1" t="e">
+        <v>476.66666666666669</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="1" t="e">
+        <v>634.66666666666663</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="1" t="e">
+        <v>1733.3333333333333</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3170</v>
       </c>
       <c r="J33" s="13" t="e">
         <f t="shared" si="3"/>
@@ -26649,37 +28803,37 @@
       <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B34" t="e">
+      <c r="B34">
         <f t="shared" ref="B34:J34" si="4">_xlfn.STDEV.P(B23:B32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" t="e">
+        <v>6.946221994724902</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" t="e">
+        <v>11.056672193747991</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" t="e">
+        <v>4.1899350299921787</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" t="e">
+        <v>6.164414002968976</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" t="e">
+        <v>9.2855921847894116</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" t="e">
+        <v>6.6499791144200016</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" t="e">
+        <v>42.460439103816256</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>19.949937343260004</v>
       </c>
       <c r="J34" s="15" t="e">
         <f t="shared" si="4"/>
@@ -26690,37 +28844,37 @@
       <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="17" t="e">
+      <c r="B35" s="17">
         <f t="shared" ref="B35:J35" si="5">_xlfn.STDEV.S(B23:B32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="17" t="e">
+        <v>8.0208062770106423</v>
+      </c>
+      <c r="C35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="17" t="e">
+        <v>12.767145334803704</v>
+      </c>
+      <c r="D35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="17" t="e">
+        <v>5.1316014394468841</v>
+      </c>
+      <c r="E35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="17" t="e">
+        <v>7.5498344352707498</v>
+      </c>
+      <c r="F35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="17" t="e">
+        <v>11.372481406154654</v>
+      </c>
+      <c r="G35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="17" t="e">
+        <v>8.1445278152470788</v>
+      </c>
+      <c r="H35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="17" t="e">
+        <v>52.003205029433843</v>
+      </c>
+      <c r="I35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>24.433583445741231</v>
       </c>
       <c r="J35" s="18" t="e">
         <f t="shared" si="5"/>
@@ -26817,6 +28971,30 @@
       <c r="A41" s="9">
         <v>1</v>
       </c>
+      <c r="B41">
+        <v>391</v>
+      </c>
+      <c r="C41">
+        <v>399</v>
+      </c>
+      <c r="D41">
+        <v>386</v>
+      </c>
+      <c r="E41">
+        <v>387</v>
+      </c>
+      <c r="F41">
+        <v>510</v>
+      </c>
+      <c r="G41">
+        <v>687</v>
+      </c>
+      <c r="H41">
+        <v>2574</v>
+      </c>
+      <c r="I41">
+        <v>4740</v>
+      </c>
       <c r="J41" s="11" t="s">
         <v>32</v>
       </c>
@@ -26825,6 +29003,30 @@
       <c r="A42" s="9">
         <v>2</v>
       </c>
+      <c r="B42">
+        <v>381</v>
+      </c>
+      <c r="C42">
+        <v>390</v>
+      </c>
+      <c r="D42">
+        <v>382</v>
+      </c>
+      <c r="E42">
+        <v>383</v>
+      </c>
+      <c r="F42">
+        <v>505</v>
+      </c>
+      <c r="G42">
+        <v>688</v>
+      </c>
+      <c r="H42">
+        <v>2505</v>
+      </c>
+      <c r="I42">
+        <v>4702</v>
+      </c>
       <c r="J42" s="11" t="s">
         <v>32</v>
       </c>
@@ -26833,6 +29035,30 @@
       <c r="A43" s="9">
         <v>3</v>
       </c>
+      <c r="B43">
+        <v>394</v>
+      </c>
+      <c r="C43">
+        <v>379</v>
+      </c>
+      <c r="D43">
+        <v>387</v>
+      </c>
+      <c r="E43">
+        <v>388</v>
+      </c>
+      <c r="F43">
+        <v>510</v>
+      </c>
+      <c r="G43">
+        <v>681</v>
+      </c>
+      <c r="H43">
+        <v>2534</v>
+      </c>
+      <c r="I43">
+        <v>4467</v>
+      </c>
       <c r="J43" s="11" t="s">
         <v>32</v>
       </c>
@@ -26841,6 +29067,30 @@
       <c r="A44" s="9">
         <v>4</v>
       </c>
+      <c r="B44">
+        <v>376</v>
+      </c>
+      <c r="C44">
+        <v>384</v>
+      </c>
+      <c r="D44">
+        <v>404</v>
+      </c>
+      <c r="E44">
+        <v>399</v>
+      </c>
+      <c r="F44">
+        <v>521</v>
+      </c>
+      <c r="G44">
+        <v>720</v>
+      </c>
+      <c r="H44">
+        <v>2312</v>
+      </c>
+      <c r="I44">
+        <v>4729</v>
+      </c>
       <c r="J44" s="11" t="s">
         <v>32</v>
       </c>
@@ -26849,6 +29099,21 @@
       <c r="A45" s="9">
         <v>5</v>
       </c>
+      <c r="D45">
+        <v>378</v>
+      </c>
+      <c r="E45">
+        <v>393</v>
+      </c>
+      <c r="G45">
+        <v>687</v>
+      </c>
+      <c r="H45">
+        <v>2291</v>
+      </c>
+      <c r="I45">
+        <v>4473</v>
+      </c>
       <c r="J45" s="11" t="s">
         <v>32</v>
       </c>
@@ -26857,6 +29122,12 @@
       <c r="A46" s="9">
         <v>6</v>
       </c>
+      <c r="G46">
+        <v>708</v>
+      </c>
+      <c r="H46">
+        <v>2529</v>
+      </c>
       <c r="J46" s="11" t="s">
         <v>32</v>
       </c>
@@ -26865,6 +29136,12 @@
       <c r="A47" s="9">
         <v>7</v>
       </c>
+      <c r="G47">
+        <v>707</v>
+      </c>
+      <c r="H47">
+        <v>2530</v>
+      </c>
       <c r="J47" s="11" t="s">
         <v>32</v>
       </c>
@@ -26897,37 +29174,37 @@
       <c r="A51" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="1" t="e">
+      <c r="B51" s="1">
         <f>AVERAGE(B41:B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="1" t="e">
+        <v>385.5</v>
+      </c>
+      <c r="C51" s="1">
         <f t="shared" ref="C51:J51" si="6">AVERAGE(C41:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D51" s="1" t="e">
+        <v>388</v>
+      </c>
+      <c r="D51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="1" t="e">
+        <v>387.4</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="1" t="e">
+        <v>390</v>
+      </c>
+      <c r="F51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="1" t="e">
+        <v>511.5</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="1" t="e">
+        <v>696.85714285714289</v>
+      </c>
+      <c r="H51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="1" t="e">
+        <v>2467.8571428571427</v>
+      </c>
+      <c r="I51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>4622.2</v>
       </c>
       <c r="J51" s="13" t="e">
         <f t="shared" si="6"/>
@@ -26938,37 +29215,37 @@
       <c r="A52" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B52" t="e">
+      <c r="B52">
         <f>_xlfn.STDEV.P(B41:B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C52" t="e">
+        <v>7.2972597596632118</v>
+      </c>
+      <c r="C52">
         <f t="shared" ref="C52:J52" si="7">_xlfn.STDEV.P(C41:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D52" t="e">
+        <v>7.4498322128756698</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52" t="e">
+        <v>8.8904443083571465</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" t="e">
+        <v>5.5136195008360884</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" t="e">
+        <v>5.8523499553598128</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" t="e">
+        <v>13.558640591662483</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" t="e">
+        <v>107.03194259048968</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>124.89899919534983</v>
       </c>
       <c r="J52" s="15" t="e">
         <f t="shared" si="7"/>
@@ -26979,37 +29256,37 @@
       <c r="A53" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="17" t="e">
+      <c r="B53" s="17">
         <f>_xlfn.STDEV.S(B41:B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C53" s="17" t="e">
+        <v>8.426149773176359</v>
+      </c>
+      <c r="C53" s="17">
         <f t="shared" ref="C53:J53" si="8">_xlfn.STDEV.S(C41:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="17" t="e">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="D53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="17" t="e">
+        <v>9.9398189118313418</v>
+      </c>
+      <c r="E53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="17" t="e">
+        <v>6.164414002968976</v>
+      </c>
+      <c r="F53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="17" t="e">
+        <v>6.757711644237764</v>
+      </c>
+      <c r="G53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="17" t="e">
+        <v>14.645005649578646</v>
+      </c>
+      <c r="H53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="17" t="e">
+        <v>115.60771106264001</v>
+      </c>
+      <c r="I53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>139.64132626124689</v>
       </c>
       <c r="J53" s="18" t="e">
         <f t="shared" si="8"/>
@@ -27086,6 +29363,30 @@
       <c r="A59" s="9">
         <v>1</v>
       </c>
+      <c r="B59">
+        <v>67</v>
+      </c>
+      <c r="C59">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <v>87</v>
+      </c>
+      <c r="E59">
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <v>176</v>
+      </c>
+      <c r="G59">
+        <v>278</v>
+      </c>
+      <c r="H59">
+        <v>897</v>
+      </c>
+      <c r="I59">
+        <v>1737</v>
+      </c>
       <c r="J59" s="11" t="s">
         <v>32</v>
       </c>
@@ -27094,6 +29395,30 @@
       <c r="A60" s="9">
         <v>2</v>
       </c>
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>90</v>
+      </c>
+      <c r="E60">
+        <v>87</v>
+      </c>
+      <c r="F60">
+        <v>170</v>
+      </c>
+      <c r="G60">
+        <v>276</v>
+      </c>
+      <c r="H60">
+        <v>892</v>
+      </c>
+      <c r="I60">
+        <v>1767</v>
+      </c>
       <c r="J60" s="11" t="s">
         <v>32</v>
       </c>
@@ -27102,6 +29427,30 @@
       <c r="A61" s="9">
         <v>3</v>
       </c>
+      <c r="B61">
+        <v>69</v>
+      </c>
+      <c r="C61">
+        <v>68</v>
+      </c>
+      <c r="D61">
+        <v>89</v>
+      </c>
+      <c r="E61">
+        <v>101</v>
+      </c>
+      <c r="F61">
+        <v>173</v>
+      </c>
+      <c r="G61">
+        <v>278</v>
+      </c>
+      <c r="H61">
+        <v>918</v>
+      </c>
+      <c r="I61">
+        <v>1742</v>
+      </c>
       <c r="J61" s="11" t="s">
         <v>32</v>
       </c>
@@ -27110,6 +29459,30 @@
       <c r="A62" s="9">
         <v>4</v>
       </c>
+      <c r="B62">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>68</v>
+      </c>
+      <c r="D62">
+        <v>85</v>
+      </c>
+      <c r="E62">
+        <v>102</v>
+      </c>
+      <c r="F62">
+        <v>180</v>
+      </c>
+      <c r="G62">
+        <v>286</v>
+      </c>
+      <c r="H62">
+        <v>904</v>
+      </c>
+      <c r="I62">
+        <v>1754</v>
+      </c>
       <c r="J62" s="11" t="s">
         <v>32</v>
       </c>
@@ -27118,6 +29491,15 @@
       <c r="A63" s="9">
         <v>5</v>
       </c>
+      <c r="B63">
+        <v>58</v>
+      </c>
+      <c r="C63">
+        <v>56</v>
+      </c>
+      <c r="I63">
+        <v>1765</v>
+      </c>
       <c r="J63" s="11" t="s">
         <v>32</v>
       </c>
@@ -27126,6 +29508,9 @@
       <c r="A64" s="9">
         <v>6</v>
       </c>
+      <c r="I64">
+        <v>1744</v>
+      </c>
       <c r="J64" s="11" t="s">
         <v>32</v>
       </c>
@@ -27166,37 +29551,37 @@
       <c r="A69" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="1" t="e">
+      <c r="B69" s="1">
         <f>AVERAGE(B59:B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C69" s="1" t="e">
+        <v>63.8</v>
+      </c>
+      <c r="C69" s="1">
         <f t="shared" ref="C69:J69" si="9">AVERAGE(C59:C68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D69" s="1" t="e">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D69" s="1">
         <f>AVERAGE(D59:D68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E69" s="1" t="e">
+        <v>87.75</v>
+      </c>
+      <c r="E69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="1" t="e">
+        <v>95</v>
+      </c>
+      <c r="F69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G69" s="1" t="e">
+        <v>174.75</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="1" t="e">
+        <v>279.5</v>
+      </c>
+      <c r="H69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I69" s="1" t="e">
+        <v>902.75</v>
+      </c>
+      <c r="I69" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1751.5</v>
       </c>
       <c r="J69" s="13" t="e">
         <f t="shared" si="9"/>
@@ -27207,37 +29592,37 @@
       <c r="A70" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B70" t="e">
+      <c r="B70">
         <f>_xlfn.STDEV.P(B59:B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C70" t="e">
+        <v>5.1923019942988677</v>
+      </c>
+      <c r="C70">
         <f t="shared" ref="C70:J70" si="10">_xlfn.STDEV.P(C59:C68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D70" t="e">
+        <v>8.5229103010650071</v>
+      </c>
+      <c r="D70">
         <f>_xlfn.STDEV.P(D59:D68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E70" t="e">
+        <v>1.920286436967152</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" t="e">
+        <v>6.5954529791364598</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G70" t="e">
+        <v>3.6996621467371855</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" t="e">
+        <v>3.8405728739343039</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I70" t="e">
+        <v>9.7819987732569249</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>11.4418821295566</v>
       </c>
       <c r="J70" s="15" t="e">
         <f t="shared" si="10"/>
@@ -27248,37 +29633,37 @@
       <c r="A71" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="17" t="e">
+      <c r="B71" s="17">
         <f>_xlfn.STDEV.S(B59:B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C71" s="17" t="e">
+        <v>5.805170109479997</v>
+      </c>
+      <c r="C71" s="17">
         <f t="shared" ref="C71:J71" si="11">_xlfn.STDEV.S(C59:C68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D71" s="17" t="e">
+        <v>9.5289033996572865</v>
+      </c>
+      <c r="D71" s="17">
         <f>_xlfn.STDEV.S(D59:D68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E71" s="17" t="e">
+        <v>2.2173557826083452</v>
+      </c>
+      <c r="E71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="17" t="e">
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="F71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G71" s="17" t="e">
+        <v>4.2720018726587652</v>
+      </c>
+      <c r="G71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="17" t="e">
+        <v>4.4347115652166904</v>
+      </c>
+      <c r="H71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I71" s="17" t="e">
+        <v>11.295279249904951</v>
+      </c>
+      <c r="I71" s="17">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>12.533953885346794</v>
       </c>
       <c r="J71" s="18" t="e">
         <f t="shared" si="11"/>
@@ -28800,7 +31185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FEB5D-2983-4E4D-A643-6C81170FF3BE}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
@@ -30115,7 +32500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E82C8D7-5142-4E64-8336-C89BD50EFDF2}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balladaniel\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDBC935-3651-4F74-BF85-0323882EB21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E47FC53-E409-4FAF-A597-AB4976B092EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -437,25 +437,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -485,7 +471,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3991,25 +3991,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>41.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>77.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>299.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>529.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4098,25 +4098,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>255.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>268.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>320.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>728.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1760.3333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4205,25 +4205,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>386.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>383.14285714285717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>383.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2411.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4312,25 +4312,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>65.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>99.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>137.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>382.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>713.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3253.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4814,22 +4814,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>41.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>77.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>299.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>529.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4915,22 +4915,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>255.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>268.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>320.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>728.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5016,22 +5016,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>386.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>383.14285714285717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>383.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5117,22 +5117,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>65.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>99.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>137.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>382.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>713.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5501,6 +5501,845 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sk-SK"/>
+              <a:t>Full chart: 50 - 50000 polygon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>features (LOG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> Y)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leaflet 1.9.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$15:$J$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>299.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>529.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2466-4706-A368-7544EFF1EF95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MBoxGLJS 3.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$33:$J$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$33:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>255.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1760.3333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2466-4706-A368-7544EFF1EF95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLibGLJS 4.7.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$51:$J$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$51:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>386.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>383.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2411.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2466-4706-A368-7544EFF1EF95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polygons!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenLayers 10.2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$58:$J$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$58:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Polygons!$B$69:$J$69</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Polygons!$B$69:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>382.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>713.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3253.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2466-4706-A368-7544EFF1EF95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444999919"/>
+        <c:axId val="445001359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444999919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Feature count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445001359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445001359"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6405667412378821E-2"/>
+              <c:y val="0.42257846817365263"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444999919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
               <a:t>Full chart: 50 - 50000 polygon features</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
@@ -6292,7 +7131,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -7094,7 +7933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -14860,6 +15699,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19309,6 +20188,522 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24502,6 +25897,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91168068-4974-4559-91C1-AA2911F045DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24889,7 +26322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -24899,34 +26332,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="L1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="L1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -24941,39 +26374,39 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -25012,14 +26445,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -25099,7 +26532,7 @@
       <c r="U6" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="36">
+      <c r="X6" s="20">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -25507,10 +26940,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
         <v>6</v>
@@ -25528,17 +26961,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -25852,61 +27285,61 @@
       <c r="L35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U35" s="24" t="s">
+      <c r="U35" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -25919,55 +27352,55 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -26001,15 +27434,15 @@
       <c r="J40" s="13">
         <v>500000</v>
       </c>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -26256,10 +27689,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -26277,17 +27710,17 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -26766,6 +28199,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="L1:S4"/>
+    <mergeCell ref="L36:T37"/>
+    <mergeCell ref="U35:AA39"/>
+    <mergeCell ref="L38:T40"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
@@ -26773,12 +28212,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="L1:S4"/>
-    <mergeCell ref="L36:T37"/>
-    <mergeCell ref="U35:AA39"/>
-    <mergeCell ref="L38:T40"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26800,18 +28233,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -26820,10 +28253,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -26847,17 +28280,17 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
       <c r="U3" t="s">
         <v>8</v>
       </c>
@@ -27191,10 +28624,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
@@ -27212,17 +28645,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -27503,10 +28936,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -27522,17 +28955,17 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -27812,10 +29245,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -27833,17 +29266,17 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -28187,34 +29620,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="L1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="L1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -28229,39 +29662,39 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -28300,14 +29733,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -28387,7 +29820,7 @@
       <c r="U6" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="36">
+      <c r="X6" s="20">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -28651,10 +30084,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -28670,17 +30103,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -29018,10 +30451,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -29037,17 +30470,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -29408,10 +30841,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
@@ -29429,17 +30862,17 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -29817,18 +31250,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -29837,10 +31270,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -29864,17 +31297,17 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
       <c r="U3" t="s">
         <v>8</v>
       </c>
@@ -30249,10 +31682,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -30268,17 +31701,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -30613,10 +32046,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -30632,17 +32065,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -30952,10 +32385,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
@@ -30973,17 +32406,17 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -31326,8 +32759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FEB5D-2983-4E4D-A643-6C81170FF3BE}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31336,34 +32769,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="L1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="L1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
@@ -31378,39 +32811,39 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -31449,14 +32882,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -31468,6 +32901,27 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>108</v>
+      </c>
+      <c r="F5">
+        <v>297</v>
+      </c>
+      <c r="G5">
+        <v>511</v>
+      </c>
+      <c r="H5">
+        <v>2426</v>
+      </c>
       <c r="I5" s="10" t="s">
         <v>29</v>
       </c>
@@ -31485,6 +32939,27 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>112</v>
+      </c>
+      <c r="F6">
+        <v>298</v>
+      </c>
+      <c r="G6">
+        <v>535</v>
+      </c>
+      <c r="H6">
+        <v>2589</v>
+      </c>
       <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
@@ -31494,7 +32969,7 @@
       <c r="U6" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="36">
+      <c r="X6" s="20">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -31502,6 +32977,27 @@
       <c r="A7" s="9">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>84</v>
+      </c>
+      <c r="E7">
+        <v>93</v>
+      </c>
+      <c r="F7">
+        <v>320</v>
+      </c>
+      <c r="G7">
+        <v>536</v>
+      </c>
+      <c r="H7">
+        <v>2576</v>
+      </c>
       <c r="I7" s="10" t="s">
         <v>29</v>
       </c>
@@ -31519,6 +33015,27 @@
       <c r="A8" s="9">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>78</v>
+      </c>
+      <c r="E8">
+        <v>122</v>
+      </c>
+      <c r="F8">
+        <v>294</v>
+      </c>
+      <c r="G8">
+        <v>535</v>
+      </c>
+      <c r="H8">
+        <v>2577</v>
+      </c>
       <c r="I8" s="10" t="s">
         <v>29</v>
       </c>
@@ -31536,6 +33053,24 @@
       <c r="A9" s="9">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>89</v>
+      </c>
+      <c r="F9">
+        <v>288</v>
+      </c>
+      <c r="H9">
+        <v>2559</v>
+      </c>
       <c r="I9" s="10" t="s">
         <v>29</v>
       </c>
@@ -31553,6 +33088,21 @@
       <c r="A10" s="9">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>82</v>
+      </c>
+      <c r="E10">
+        <v>104</v>
+      </c>
+      <c r="H10">
+        <v>2552</v>
+      </c>
       <c r="I10" s="10" t="s">
         <v>29</v>
       </c>
@@ -31570,6 +33120,18 @@
       <c r="A11" s="9">
         <v>7</v>
       </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>114</v>
+      </c>
+      <c r="H11">
+        <v>2564</v>
+      </c>
       <c r="I11" s="10" t="s">
         <v>29</v>
       </c>
@@ -31581,6 +33143,9 @@
       <c r="A12" s="9">
         <v>8</v>
       </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
@@ -31592,6 +33157,9 @@
       <c r="A13" s="9">
         <v>9</v>
       </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
       </c>
@@ -31603,6 +33171,9 @@
       <c r="A14" s="9">
         <v>10</v>
       </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
       </c>
@@ -31614,33 +33185,33 @@
       <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="e">
+      <c r="B15" s="1">
         <f>AVERAGE(B5:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="1" t="e">
+        <v>41.2</v>
+      </c>
+      <c r="C15" s="1">
         <f t="shared" ref="C15:J15" si="0">AVERAGE(C5:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="1" t="e">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="1" t="e">
+        <v>77.166666666666671</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="1" t="e">
+        <v>106</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="1" t="e">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="1" t="e">
+        <v>529.25</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2549</v>
       </c>
       <c r="I15" s="1" t="e">
         <f t="shared" si="0"/>
@@ -31655,33 +33226,33 @@
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="e">
+      <c r="B16">
         <f>_xlfn.STDEV.P(B5:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" t="e">
+        <v>5.7584720195551871</v>
+      </c>
+      <c r="C16">
         <f t="shared" ref="C16:I16" si="1">_xlfn.STDEV.P(C5:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" t="e">
+        <v>5.42481072744215</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" t="e">
+        <v>5.1774081890030219</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" t="e">
+        <v>10.836446439150217</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" t="e">
+        <v>10.873821775254548</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" t="e">
+        <v>10.54454835448157</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>51.514214404514469</v>
       </c>
       <c r="I16" t="e">
         <f t="shared" si="1"/>
@@ -31696,33 +33267,33 @@
       <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="17" t="e">
+      <c r="B17" s="17">
         <f>_xlfn.STDEV.S(B5:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="17" t="e">
+        <v>6.0699624747146732</v>
+      </c>
+      <c r="C17" s="17">
         <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="17" t="e">
+        <v>5.8594652770823155</v>
+      </c>
+      <c r="D17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="17" t="e">
+        <v>5.6715665090578513</v>
+      </c>
+      <c r="E17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="17" t="e">
+        <v>11.704699910719626</v>
+      </c>
+      <c r="F17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="17" t="e">
+        <v>12.157302332343306</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="17" t="e">
+        <v>12.175795661885921</v>
+      </c>
+      <c r="H17" s="17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>55.641710972974224</v>
       </c>
       <c r="I17" s="17" t="e">
         <f t="shared" si="2"/>
@@ -31734,10 +33305,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
@@ -31753,17 +33324,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -31801,6 +33372,27 @@
       <c r="A23" s="9">
         <v>1</v>
       </c>
+      <c r="B23">
+        <v>252</v>
+      </c>
+      <c r="C23">
+        <v>270</v>
+      </c>
+      <c r="D23">
+        <v>329</v>
+      </c>
+      <c r="E23">
+        <v>353</v>
+      </c>
+      <c r="F23">
+        <v>540</v>
+      </c>
+      <c r="G23">
+        <v>730</v>
+      </c>
+      <c r="H23">
+        <v>1766</v>
+      </c>
       <c r="I23" s="10" t="s">
         <v>29</v>
       </c>
@@ -31812,6 +33404,27 @@
       <c r="A24" s="9">
         <v>2</v>
       </c>
+      <c r="B24">
+        <v>259</v>
+      </c>
+      <c r="C24">
+        <v>257</v>
+      </c>
+      <c r="D24">
+        <v>335</v>
+      </c>
+      <c r="E24">
+        <v>365</v>
+      </c>
+      <c r="F24">
+        <v>542</v>
+      </c>
+      <c r="G24">
+        <v>720</v>
+      </c>
+      <c r="H24">
+        <v>1757</v>
+      </c>
       <c r="I24" s="10" t="s">
         <v>29</v>
       </c>
@@ -31823,6 +33436,27 @@
       <c r="A25" s="9">
         <v>3</v>
       </c>
+      <c r="B25">
+        <v>261</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="D25">
+        <v>310</v>
+      </c>
+      <c r="E25">
+        <v>353</v>
+      </c>
+      <c r="F25">
+        <v>574</v>
+      </c>
+      <c r="G25">
+        <v>735</v>
+      </c>
+      <c r="H25">
+        <v>1758</v>
+      </c>
       <c r="I25" s="10" t="s">
         <v>29</v>
       </c>
@@ -31834,6 +33468,15 @@
       <c r="A26" s="9">
         <v>4</v>
       </c>
+      <c r="B26">
+        <v>257</v>
+      </c>
+      <c r="C26">
+        <v>276</v>
+      </c>
+      <c r="D26">
+        <v>308</v>
+      </c>
       <c r="I26" s="10" t="s">
         <v>29</v>
       </c>
@@ -31845,6 +33488,12 @@
       <c r="A27" s="9">
         <v>5</v>
       </c>
+      <c r="B27">
+        <v>251</v>
+      </c>
+      <c r="C27">
+        <v>288</v>
+      </c>
       <c r="I27" s="10" t="s">
         <v>29</v>
       </c>
@@ -31856,6 +33505,9 @@
       <c r="A28" s="9">
         <v>6</v>
       </c>
+      <c r="B28">
+        <v>252</v>
+      </c>
       <c r="I28" s="10" t="s">
         <v>29</v>
       </c>
@@ -31911,33 +33563,33 @@
       <c r="A33" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="1" t="e">
+      <c r="B33" s="1">
         <f t="shared" ref="B33:J33" si="3">AVERAGE(B23:B32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="1" t="e">
+        <v>255.33333333333334</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="1" t="e">
+        <v>268.2</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="1" t="e">
+        <v>320.5</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="1" t="e">
+        <v>357</v>
+      </c>
+      <c r="F33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="1" t="e">
+        <v>552</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="1" t="e">
+        <v>728.33333333333337</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1760.3333333333333</v>
       </c>
       <c r="I33" s="1" t="e">
         <f t="shared" si="3"/>
@@ -31952,33 +33604,33 @@
       <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B34" t="e">
+      <c r="B34">
         <f t="shared" ref="B34:J34" si="4">_xlfn.STDEV.P(B23:B32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" t="e">
+        <v>3.858612300930075</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" t="e">
+        <v>13.511476603243629</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" t="e">
+        <v>11.715374513859981</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" t="e">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" t="e">
+        <v>15.57776192739723</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" t="e">
+        <v>6.2360956446232363</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0276819911981905</v>
       </c>
       <c r="I34" t="e">
         <f t="shared" si="4"/>
@@ -31993,33 +33645,33 @@
       <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="17" t="e">
+      <c r="B35" s="17">
         <f t="shared" ref="B35:J35" si="5">_xlfn.STDEV.S(B23:B32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="17" t="e">
+        <v>4.2268979957726289</v>
+      </c>
+      <c r="C35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="17" t="e">
+        <v>15.106290080625355</v>
+      </c>
+      <c r="D35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="17" t="e">
+        <v>13.527749258468683</v>
+      </c>
+      <c r="E35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="17" t="e">
+        <v>6.9282032302755088</v>
+      </c>
+      <c r="F35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="17" t="e">
+        <v>19.078784028338912</v>
+      </c>
+      <c r="G35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="17" t="e">
+        <v>7.6376261582597342</v>
+      </c>
+      <c r="H35" s="17">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4.9328828623162471</v>
       </c>
       <c r="I35" s="17" t="e">
         <f t="shared" si="5"/>
@@ -32053,10 +33705,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -32072,17 +33724,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -32120,6 +33772,27 @@
       <c r="A41" s="9">
         <v>1</v>
       </c>
+      <c r="B41">
+        <v>380</v>
+      </c>
+      <c r="C41">
+        <v>381</v>
+      </c>
+      <c r="D41">
+        <v>387</v>
+      </c>
+      <c r="E41">
+        <v>387</v>
+      </c>
+      <c r="F41">
+        <v>579</v>
+      </c>
+      <c r="G41">
+        <v>814</v>
+      </c>
+      <c r="H41">
+        <v>2366</v>
+      </c>
       <c r="I41" s="10" t="s">
         <v>29</v>
       </c>
@@ -32131,6 +33804,27 @@
       <c r="A42" s="9">
         <v>2</v>
       </c>
+      <c r="B42">
+        <v>387</v>
+      </c>
+      <c r="C42">
+        <v>377</v>
+      </c>
+      <c r="D42">
+        <v>377</v>
+      </c>
+      <c r="E42">
+        <v>397</v>
+      </c>
+      <c r="F42">
+        <v>560</v>
+      </c>
+      <c r="G42">
+        <v>825</v>
+      </c>
+      <c r="H42">
+        <v>2410</v>
+      </c>
       <c r="I42" s="10" t="s">
         <v>29</v>
       </c>
@@ -32142,6 +33836,27 @@
       <c r="A43" s="9">
         <v>3</v>
       </c>
+      <c r="B43">
+        <v>382</v>
+      </c>
+      <c r="C43">
+        <v>388</v>
+      </c>
+      <c r="D43">
+        <v>378</v>
+      </c>
+      <c r="E43">
+        <v>386</v>
+      </c>
+      <c r="F43">
+        <v>564</v>
+      </c>
+      <c r="G43">
+        <v>812</v>
+      </c>
+      <c r="H43">
+        <v>2470</v>
+      </c>
       <c r="I43" s="10" t="s">
         <v>29</v>
       </c>
@@ -32153,6 +33868,24 @@
       <c r="A44" s="9">
         <v>4</v>
       </c>
+      <c r="B44">
+        <v>393</v>
+      </c>
+      <c r="C44">
+        <v>387</v>
+      </c>
+      <c r="D44">
+        <v>389</v>
+      </c>
+      <c r="E44">
+        <v>386</v>
+      </c>
+      <c r="F44">
+        <v>577</v>
+      </c>
+      <c r="H44">
+        <v>2399</v>
+      </c>
       <c r="I44" s="10" t="s">
         <v>29</v>
       </c>
@@ -32164,6 +33897,18 @@
       <c r="A45" s="9">
         <v>5</v>
       </c>
+      <c r="B45">
+        <v>391</v>
+      </c>
+      <c r="C45">
+        <v>375</v>
+      </c>
+      <c r="D45">
+        <v>379</v>
+      </c>
+      <c r="E45">
+        <v>389</v>
+      </c>
       <c r="I45" s="10" t="s">
         <v>29</v>
       </c>
@@ -32175,6 +33920,12 @@
       <c r="A46" s="9">
         <v>6</v>
       </c>
+      <c r="C46">
+        <v>383</v>
+      </c>
+      <c r="D46">
+        <v>386</v>
+      </c>
       <c r="I46" s="10" t="s">
         <v>29</v>
       </c>
@@ -32186,6 +33937,12 @@
       <c r="A47" s="9">
         <v>7</v>
       </c>
+      <c r="C47">
+        <v>391</v>
+      </c>
+      <c r="D47">
+        <v>389</v>
+      </c>
       <c r="I47" s="10" t="s">
         <v>29</v>
       </c>
@@ -32230,33 +33987,33 @@
       <c r="A51" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="1" t="e">
+      <c r="B51" s="1">
         <f>AVERAGE(B41:B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="1" t="e">
+        <v>386.6</v>
+      </c>
+      <c r="C51" s="1">
         <f t="shared" ref="C51:J51" si="6">AVERAGE(C41:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D51" s="1" t="e">
+        <v>383.14285714285717</v>
+      </c>
+      <c r="D51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="1" t="e">
+        <v>383.57142857142856</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="1" t="e">
+        <v>389</v>
+      </c>
+      <c r="F51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="1" t="e">
+        <v>570</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="1" t="e">
+        <v>817</v>
+      </c>
+      <c r="H51" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>2411.25</v>
       </c>
       <c r="I51" s="1" t="e">
         <f t="shared" si="6"/>
@@ -32271,33 +34028,33 @@
       <c r="A52" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B52" t="e">
+      <c r="B52">
         <f>_xlfn.STDEV.P(B41:B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C52" t="e">
+        <v>5.0039984012787215</v>
+      </c>
+      <c r="C52">
         <f t="shared" ref="C52:J52" si="7">_xlfn.STDEV.P(C41:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D52" t="e">
+        <v>5.4623012269443318</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52" t="e">
+        <v>4.9528388066742046</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" t="e">
+        <v>4.1472882706655438</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" t="e">
+        <v>8.1547532151500448</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" t="e">
+        <v>5.715476066494082</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>37.585735326051555</v>
       </c>
       <c r="I52" t="e">
         <f t="shared" si="7"/>
@@ -32312,33 +34069,33 @@
       <c r="A53" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="17" t="e">
+      <c r="B53" s="17">
         <f>_xlfn.STDEV.S(B41:B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C53" s="17" t="e">
+        <v>5.5946402922797462</v>
+      </c>
+      <c r="C53" s="17">
         <f t="shared" ref="C53:J53" si="8">_xlfn.STDEV.S(C41:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="17" t="e">
+        <v>5.8999596447368861</v>
+      </c>
+      <c r="D53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="17" t="e">
+        <v>5.3496773378445566</v>
+      </c>
+      <c r="E53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="17" t="e">
+        <v>4.636809247747852</v>
+      </c>
+      <c r="F53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="17" t="e">
+        <v>9.41629792788369</v>
+      </c>
+      <c r="G53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="17" t="e">
+        <v>7</v>
+      </c>
+      <c r="H53" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>43.400268816371785</v>
       </c>
       <c r="I53" s="17" t="e">
         <f t="shared" si="8"/>
@@ -32350,10 +34107,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
@@ -32371,17 +34128,17 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -32419,6 +34176,27 @@
       <c r="A59" s="9">
         <v>1</v>
       </c>
+      <c r="B59">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>73</v>
+      </c>
+      <c r="D59">
+        <v>95</v>
+      </c>
+      <c r="E59">
+        <v>129</v>
+      </c>
+      <c r="F59">
+        <v>385</v>
+      </c>
+      <c r="G59">
+        <v>720</v>
+      </c>
+      <c r="H59">
+        <v>3230</v>
+      </c>
       <c r="I59" s="10" t="s">
         <v>29</v>
       </c>
@@ -32430,6 +34208,27 @@
       <c r="A60" s="9">
         <v>2</v>
       </c>
+      <c r="B60">
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>96</v>
+      </c>
+      <c r="E60">
+        <v>135</v>
+      </c>
+      <c r="F60">
+        <v>383</v>
+      </c>
+      <c r="G60">
+        <v>765</v>
+      </c>
+      <c r="H60">
+        <v>3232</v>
+      </c>
       <c r="I60" s="10" t="s">
         <v>29</v>
       </c>
@@ -32441,6 +34240,27 @@
       <c r="A61" s="9">
         <v>3</v>
       </c>
+      <c r="B61">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>102</v>
+      </c>
+      <c r="E61">
+        <v>133</v>
+      </c>
+      <c r="F61">
+        <v>382</v>
+      </c>
+      <c r="G61">
+        <v>704</v>
+      </c>
+      <c r="H61">
+        <v>3239</v>
+      </c>
       <c r="I61" s="10" t="s">
         <v>29</v>
       </c>
@@ -32452,6 +34272,27 @@
       <c r="A62" s="9">
         <v>4</v>
       </c>
+      <c r="B62">
+        <v>77</v>
+      </c>
+      <c r="C62">
+        <v>76</v>
+      </c>
+      <c r="D62">
+        <v>109</v>
+      </c>
+      <c r="E62">
+        <v>153</v>
+      </c>
+      <c r="F62">
+        <v>381</v>
+      </c>
+      <c r="G62">
+        <v>673</v>
+      </c>
+      <c r="H62">
+        <v>3307</v>
+      </c>
       <c r="I62" s="10" t="s">
         <v>29</v>
       </c>
@@ -32463,6 +34304,24 @@
       <c r="A63" s="9">
         <v>5</v>
       </c>
+      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
+      <c r="D63">
+        <v>93</v>
+      </c>
+      <c r="E63">
+        <v>139</v>
+      </c>
+      <c r="G63">
+        <v>704</v>
+      </c>
+      <c r="H63">
+        <v>3261</v>
+      </c>
       <c r="I63" s="10" t="s">
         <v>29</v>
       </c>
@@ -32474,6 +34333,15 @@
       <c r="A64" s="9">
         <v>6</v>
       </c>
+      <c r="B64">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>58</v>
+      </c>
+      <c r="D64">
+        <v>103</v>
+      </c>
       <c r="I64" s="10" t="s">
         <v>29</v>
       </c>
@@ -32485,6 +34353,12 @@
       <c r="A65" s="9">
         <v>7</v>
       </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>76</v>
+      </c>
       <c r="I65" s="10" t="s">
         <v>29</v>
       </c>
@@ -32496,6 +34370,12 @@
       <c r="A66" s="9">
         <v>8</v>
       </c>
+      <c r="B66">
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>67</v>
+      </c>
       <c r="I66" s="10" t="s">
         <v>29</v>
       </c>
@@ -32507,6 +34387,9 @@
       <c r="A67" s="9">
         <v>9</v>
       </c>
+      <c r="B67">
+        <v>59</v>
+      </c>
       <c r="I67" s="10" t="s">
         <v>29</v>
       </c>
@@ -32518,6 +34401,9 @@
       <c r="A68" s="9">
         <v>10</v>
       </c>
+      <c r="B68">
+        <v>65</v>
+      </c>
       <c r="I68" s="10" t="s">
         <v>29</v>
       </c>
@@ -32529,36 +34415,36 @@
       <c r="A69" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="1" t="e">
+      <c r="B69" s="1">
         <f>AVERAGE(B59:B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C69" s="1" t="e">
-        <f t="shared" ref="C69:J69" si="9">AVERAGE(C59:C68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D69" s="1" t="e">
+        <v>65.3</v>
+      </c>
+      <c r="C69" s="1">
+        <f>AVERAGE(C59:C68)</f>
+        <v>68</v>
+      </c>
+      <c r="D69" s="1">
         <f>AVERAGE(D59:D68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E69" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G69" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>99.666666666666671</v>
+      </c>
+      <c r="E69" s="1">
+        <f>AVERAGE(E59:E68)</f>
+        <v>137.80000000000001</v>
+      </c>
+      <c r="F69" s="1">
+        <f>AVERAGE(F59:F68)</f>
+        <v>382.75</v>
+      </c>
+      <c r="G69" s="1">
+        <f>AVERAGE(G59:G68)</f>
+        <v>713.2</v>
+      </c>
+      <c r="H69" s="1">
+        <f>AVERAGE(H59:H68)</f>
+        <v>3253.8</v>
       </c>
       <c r="I69" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I69:J69" si="9">AVERAGE(I59:I68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J69" s="13" t="e">
@@ -32570,36 +34456,36 @@
       <c r="A70" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B70" t="e">
+      <c r="B70">
         <f>_xlfn.STDEV.P(B59:B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C70" t="e">
-        <f t="shared" ref="C70:J70" si="10">_xlfn.STDEV.P(C59:C68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D70" t="e">
+        <v>5.3113086899558004</v>
+      </c>
+      <c r="C70">
+        <f>_xlfn.STDEV.P(C59:C68)</f>
+        <v>6.6332495807107996</v>
+      </c>
+      <c r="D70">
         <f>_xlfn.STDEV.P(D59:D68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E70" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G70" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>5.5277079839256666</v>
+      </c>
+      <c r="E70">
+        <f>_xlfn.STDEV.P(E59:E68)</f>
+        <v>8.2559069762201176</v>
+      </c>
+      <c r="F70">
+        <f>_xlfn.STDEV.P(F59:F68)</f>
+        <v>1.479019945774904</v>
+      </c>
+      <c r="G70">
+        <f>_xlfn.STDEV.P(G59:G68)</f>
+        <v>30.049292836937113</v>
+      </c>
+      <c r="H70">
+        <f>_xlfn.STDEV.P(H59:H68)</f>
+        <v>28.784718167805639</v>
       </c>
       <c r="I70" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I70:J70" si="10">_xlfn.STDEV.P(I59:I68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J70" s="15" t="e">
@@ -32611,36 +34497,36 @@
       <c r="A71" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="17" t="e">
+      <c r="B71" s="17">
         <f>_xlfn.STDEV.S(B59:B68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C71" s="17" t="e">
-        <f t="shared" ref="C71:J71" si="11">_xlfn.STDEV.S(C59:C68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D71" s="17" t="e">
+        <v>5.5986109388351357</v>
+      </c>
+      <c r="C71" s="17">
+        <f>_xlfn.STDEV.S(C59:C68)</f>
+        <v>7.0912420834233467</v>
+      </c>
+      <c r="D71" s="17">
         <f>_xlfn.STDEV.S(D59:D68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E71" s="17" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="17" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G71" s="17" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="17" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>6.0553007081949835</v>
+      </c>
+      <c r="E71" s="17">
+        <f>_xlfn.STDEV.S(E59:E68)</f>
+        <v>9.2303846073714606</v>
+      </c>
+      <c r="F71" s="17">
+        <f>_xlfn.STDEV.S(F59:F68)</f>
+        <v>1.707825127659933</v>
+      </c>
+      <c r="G71" s="17">
+        <f>_xlfn.STDEV.S(G59:G68)</f>
+        <v>33.596130729594442</v>
+      </c>
+      <c r="H71" s="17">
+        <f>_xlfn.STDEV.S(H59:H68)</f>
+        <v>32.182293268193305</v>
       </c>
       <c r="I71" s="17" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I71:J71" si="11">_xlfn.STDEV.S(I59:I68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J71" s="18" t="e">
@@ -32650,16 +34536,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="L1:S4"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32681,18 +34567,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -32701,10 +34587,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
@@ -32728,17 +34614,17 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
       <c r="U3" t="s">
         <v>8</v>
       </c>
@@ -33158,10 +35044,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
@@ -33177,17 +35063,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -33543,10 +35429,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -33562,17 +35448,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -33918,10 +35804,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
@@ -33939,17 +35825,17 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balladaniel\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E47FC53-E409-4FAF-A597-AB4976B092EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401FA170-A405-415F-AF09-2C6E46E35009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Lines_3070PC" sheetId="8" r:id="rId4"/>
     <sheet name="Polygons" sheetId="7" r:id="rId5"/>
     <sheet name="Polygons_3070PC" sheetId="9" r:id="rId6"/>
+    <sheet name="DatasetFileSizes" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="51">
   <si>
     <t>Run #</t>
   </si>
@@ -173,6 +174,27 @@
   </si>
   <si>
     <t>weak PC (iGPU, OpenGL 4.4)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Number of features</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>lines</t>
+  </si>
+  <si>
+    <t>polygons</t>
+  </si>
+  <si>
+    <t>Filesizes</t>
+  </si>
+  <si>
+    <t>KB</t>
   </si>
 </sst>
 </file>
@@ -406,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,6 +466,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,19 +508,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -26332,34 +26360,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="L1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="L1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -26374,14 +26402,14 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
@@ -26399,14 +26427,14 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -26445,14 +26473,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -26940,10 +26968,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
         <v>6</v>
@@ -27285,61 +27313,61 @@
       <c r="L35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U35" s="34" t="s">
+      <c r="U35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L36" s="33" t="s">
+      <c r="L36" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -27352,24 +27380,24 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="L38" s="34" t="s">
+      <c r="L38" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -27385,22 +27413,22 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="22"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -27434,15 +27462,15 @@
       <c r="J40" s="13">
         <v>500000</v>
       </c>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -27689,10 +27717,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -28223,8 +28251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7326F72D-FE2E-4499-9C3F-B7DCE9FC1F96}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U9"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28233,18 +28261,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -28253,10 +28281,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -28624,10 +28652,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
@@ -28936,10 +28964,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -29245,10 +29273,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -29620,34 +29648,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="L1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="L1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -29662,14 +29690,14 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
@@ -29687,14 +29715,14 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -29733,14 +29761,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -30084,10 +30112,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -30451,10 +30479,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -30841,10 +30869,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
@@ -31250,18 +31278,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -31270,10 +31298,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -31682,10 +31710,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -32046,10 +32074,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -32385,10 +32413,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
@@ -32759,7 +32787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FEB5D-2983-4E4D-A643-6C81170FF3BE}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -32769,34 +32797,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="L1" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="L1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
@@ -32811,14 +32839,14 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
@@ -32836,14 +32864,14 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -32882,14 +32910,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -33305,10 +33333,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
@@ -33705,10 +33733,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -34107,10 +34135,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
@@ -34416,39 +34444,39 @@
         <v>3</v>
       </c>
       <c r="B69" s="1">
-        <f>AVERAGE(B59:B68)</f>
+        <f t="shared" ref="B69:H69" si="9">AVERAGE(B59:B68)</f>
         <v>65.3</v>
       </c>
       <c r="C69" s="1">
-        <f>AVERAGE(C59:C68)</f>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D69" s="1">
-        <f>AVERAGE(D59:D68)</f>
+        <f t="shared" si="9"/>
         <v>99.666666666666671</v>
       </c>
       <c r="E69" s="1">
-        <f>AVERAGE(E59:E68)</f>
+        <f t="shared" si="9"/>
         <v>137.80000000000001</v>
       </c>
       <c r="F69" s="1">
-        <f>AVERAGE(F59:F68)</f>
+        <f t="shared" si="9"/>
         <v>382.75</v>
       </c>
       <c r="G69" s="1">
-        <f>AVERAGE(G59:G68)</f>
+        <f t="shared" si="9"/>
         <v>713.2</v>
       </c>
       <c r="H69" s="1">
-        <f>AVERAGE(H59:H68)</f>
+        <f t="shared" si="9"/>
         <v>3253.8</v>
       </c>
       <c r="I69" s="1" t="e">
-        <f t="shared" ref="I69:J69" si="9">AVERAGE(I59:I68)</f>
+        <f t="shared" ref="I69:J69" si="10">AVERAGE(I59:I68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J69" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -34457,39 +34485,39 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <f>_xlfn.STDEV.P(B59:B68)</f>
+        <f t="shared" ref="B70:H70" si="11">_xlfn.STDEV.P(B59:B68)</f>
         <v>5.3113086899558004</v>
       </c>
       <c r="C70">
-        <f>_xlfn.STDEV.P(C59:C68)</f>
+        <f t="shared" si="11"/>
         <v>6.6332495807107996</v>
       </c>
       <c r="D70">
-        <f>_xlfn.STDEV.P(D59:D68)</f>
+        <f t="shared" si="11"/>
         <v>5.5277079839256666</v>
       </c>
       <c r="E70">
-        <f>_xlfn.STDEV.P(E59:E68)</f>
+        <f t="shared" si="11"/>
         <v>8.2559069762201176</v>
       </c>
       <c r="F70">
-        <f>_xlfn.STDEV.P(F59:F68)</f>
+        <f t="shared" si="11"/>
         <v>1.479019945774904</v>
       </c>
       <c r="G70">
-        <f>_xlfn.STDEV.P(G59:G68)</f>
+        <f t="shared" si="11"/>
         <v>30.049292836937113</v>
       </c>
       <c r="H70">
-        <f>_xlfn.STDEV.P(H59:H68)</f>
+        <f t="shared" si="11"/>
         <v>28.784718167805639</v>
       </c>
       <c r="I70" t="e">
-        <f t="shared" ref="I70:J70" si="10">_xlfn.STDEV.P(I59:I68)</f>
+        <f t="shared" ref="I70:J70" si="12">_xlfn.STDEV.P(I59:I68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J70" s="15" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -34498,54 +34526,54 @@
         <v>5</v>
       </c>
       <c r="B71" s="17">
-        <f>_xlfn.STDEV.S(B59:B68)</f>
+        <f t="shared" ref="B71:H71" si="13">_xlfn.STDEV.S(B59:B68)</f>
         <v>5.5986109388351357</v>
       </c>
       <c r="C71" s="17">
-        <f>_xlfn.STDEV.S(C59:C68)</f>
+        <f t="shared" si="13"/>
         <v>7.0912420834233467</v>
       </c>
       <c r="D71" s="17">
-        <f>_xlfn.STDEV.S(D59:D68)</f>
+        <f t="shared" si="13"/>
         <v>6.0553007081949835</v>
       </c>
       <c r="E71" s="17">
-        <f>_xlfn.STDEV.S(E59:E68)</f>
+        <f t="shared" si="13"/>
         <v>9.2303846073714606</v>
       </c>
       <c r="F71" s="17">
-        <f>_xlfn.STDEV.S(F59:F68)</f>
+        <f t="shared" si="13"/>
         <v>1.707825127659933</v>
       </c>
       <c r="G71" s="17">
-        <f>_xlfn.STDEV.S(G59:G68)</f>
+        <f t="shared" si="13"/>
         <v>33.596130729594442</v>
       </c>
       <c r="H71" s="17">
-        <f>_xlfn.STDEV.S(H59:H68)</f>
+        <f t="shared" si="13"/>
         <v>32.182293268193305</v>
       </c>
       <c r="I71" s="17" t="e">
-        <f t="shared" ref="I71:J71" si="11">_xlfn.STDEV.S(I59:I68)</f>
+        <f t="shared" ref="I71:J71" si="14">_xlfn.STDEV.S(I59:I68)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J71" s="18" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L1:S4"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B39:J39"/>
     <mergeCell ref="B57:J57"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="L1:S4"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34567,18 +34595,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -34587,10 +34615,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
@@ -35044,10 +35072,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
@@ -35429,10 +35457,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -35804,10 +35832,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
@@ -36223,4 +36251,182 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1083D35-1455-4A6A-8D2F-88B4EAE334E1}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>114</v>
+      </c>
+      <c r="F4">
+        <v>569</v>
+      </c>
+      <c r="G4">
+        <v>1138</v>
+      </c>
+      <c r="H4">
+        <v>5686</v>
+      </c>
+      <c r="I4">
+        <v>11371</v>
+      </c>
+      <c r="J4">
+        <v>56851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>148</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>1554</v>
+      </c>
+      <c r="G5">
+        <v>3135</v>
+      </c>
+      <c r="H5">
+        <v>15631</v>
+      </c>
+      <c r="I5">
+        <v>31402</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>146</v>
+      </c>
+      <c r="E6">
+        <v>297</v>
+      </c>
+      <c r="F6">
+        <v>1467</v>
+      </c>
+      <c r="G6">
+        <v>2931</v>
+      </c>
+      <c r="H6">
+        <v>14740</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balladaniel\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdnl\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401FA170-A405-415F-AF09-2C6E46E35009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61652F18-74D9-45D3-B383-61E7EED4F022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1041,6 +1041,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -1358,7 +1372,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1891,6 +1905,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -2208,7 +2236,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2693,6 +2721,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -3010,7 +3052,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3543,6 +3585,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -3861,7 +3917,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4378,6 +4434,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -4695,7 +4765,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5180,6 +5250,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -5497,7 +5581,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6018,6 +6102,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -6336,7 +6434,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6845,6 +6943,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -7162,7 +7274,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7647,6 +7759,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -7964,7 +8090,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8481,6 +8607,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -8799,7 +8939,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9284,6 +9424,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -9601,7 +9755,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10102,6 +10256,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -10420,7 +10588,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10929,6 +11097,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="1185265359"/>
         <c:axId val="1185266799"/>
@@ -11238,7 +11420,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11731,6 +11913,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="1185265359"/>
         <c:axId val="1185266799"/>
@@ -12040,7 +12236,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12545,6 +12741,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="1185265359"/>
         <c:axId val="1185266799"/>
@@ -12855,7 +13065,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13388,6 +13598,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -13705,7 +13929,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14190,6 +14414,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -14507,7 +14745,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15052,6 +15290,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -26350,7 +26602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -28251,8 +28503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7326F72D-FE2E-4499-9C3F-B7DCE9FC1F96}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29638,8 +29890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0788AADB-FA8C-4ED4-A981-E1DCADC2505D}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:S4"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31268,7 +31520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED8BAC0-5818-4841-9C2B-B960F1215CE6}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U1" sqref="U1:U9"/>
     </sheetView>
   </sheetViews>
@@ -32787,7 +33039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FEB5D-2983-4E4D-A643-6C81170FF3BE}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -34564,16 +34816,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="L1:S4"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34586,7 +34838,7 @@
   <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36257,7 +36509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1083D35-1455-4A6A-8D2F-88B4EAE334E1}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdnl\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balladaniel\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF517DB-F123-4178-8235-68CB23D37D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF9DB40-6494-4440-8C4F-2E8E19A8DF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,6 +491,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,14 +552,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +584,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1417,7 +1416,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2281,7 +2280,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3097,7 +3096,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3962,7 +3961,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4810,7 +4809,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5626,7 +5625,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6479,7 +6478,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7319,7 +7318,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8135,7 +8134,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8984,7 +8983,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9672,7 +9671,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10488,7 +10487,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11321,7 +11320,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12153,7 +12152,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12969,7 +12968,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13604,6 +13603,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="11000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13798,7 +13798,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14662,7 +14662,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15478,7 +15478,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -27939,34 +27939,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="L1" s="20" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -27981,39 +27981,39 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -28052,14 +28052,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -28504,57 +28504,57 @@
         <f>_xlfn.STDEV.P(J5:J14)</f>
         <v>406.45250645063072</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16">
         <f>AVERAGE(B16:J16)</f>
         <v>56.698351730759569</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="19">
         <f>_xlfn.STDEV.S(B5:B14)</f>
         <v>5.245103536738922</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
         <v>4.7714428286071531</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="19">
         <f t="shared" si="2"/>
         <v>6.6841437580125111</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>6.908931417616861</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
         <v>4.5325979795746765</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="19">
         <f t="shared" si="2"/>
         <v>7.2694184392181231</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>31.02131883434717</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="19">
         <f t="shared" si="2"/>
         <v>43.016275989443805</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="20">
         <f t="shared" si="2"/>
         <v>428.43856035609122</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
@@ -28572,17 +28572,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -28849,7 +28849,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34">
         <f>AVERAGE(B34:J34)</f>
         <v>4.8950404424884866</v>
       </c>
@@ -28858,103 +28858,103 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="19">
         <f t="shared" ref="B35:J35" si="5">_xlfn.STDEV.S(B23:B32)</f>
         <v>8.4852813742385695</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="19">
         <f t="shared" si="5"/>
         <v>21.920310216782973</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="19">
         <f t="shared" si="5"/>
         <v>9.8994949366116654</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="19">
         <f t="shared" si="5"/>
         <v>9.8657657246324941</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="19">
         <f t="shared" si="5"/>
         <v>10.606601717798213</v>
       </c>
-      <c r="G35" s="37" t="e">
+      <c r="G35" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="37" t="e">
+      <c r="H35" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="37" t="e">
+      <c r="I35" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="38" t="e">
+      <c r="J35" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U35" s="22" t="s">
+      <c r="U35" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -28967,55 +28967,55 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="L38" s="22" t="s">
+      <c r="L38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -29049,15 +29049,15 @@
       <c r="J40" s="13">
         <v>500000</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -29261,57 +29261,57 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52">
         <f>AVERAGE(B52:J52)</f>
         <v>14.593638373017702</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="19">
         <f>_xlfn.STDEV.S(B41:B50)</f>
         <v>8.4852813742385695</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="19">
         <f t="shared" ref="C53:J53" si="8">_xlfn.STDEV.S(C41:C50)</f>
         <v>19.091883092036785</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="19">
         <f t="shared" si="8"/>
         <v>17.320508075688775</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="19">
         <f t="shared" si="8"/>
         <v>4.2426406871192848</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="19">
         <f t="shared" si="8"/>
         <v>9.4692484742278609</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="19">
         <f t="shared" si="8"/>
         <v>15.556349186104045</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="19">
         <f t="shared" si="8"/>
         <v>6.3639610306789276</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="19">
         <f t="shared" si="8"/>
         <v>36.76955262170047</v>
       </c>
-      <c r="J53" s="38">
+      <c r="J53" s="20">
         <f t="shared" si="8"/>
         <v>63.63961030678928</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -29329,17 +29329,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -29774,48 +29774,48 @@
         <f t="shared" si="10"/>
         <v>275.38527556861135</v>
       </c>
-      <c r="K70" s="39">
+      <c r="K70">
         <f>AVERAGE(B70:J70)</f>
         <v>40.432254822433748</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="19">
         <f>_xlfn.STDEV.S(B59:B68)</f>
         <v>5.1380930314660516</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="19">
         <f t="shared" ref="C71:J71" si="11">_xlfn.STDEV.S(C59:C68)</f>
         <v>6.1967733539318672</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="19">
         <f>_xlfn.STDEV.S(D59:D68)</f>
         <v>5.4170512683972678</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="19">
         <f t="shared" si="11"/>
         <v>5.5065617423417876</v>
       </c>
-      <c r="F71" s="37">
+      <c r="F71" s="19">
         <f t="shared" si="11"/>
         <v>8.8950672972284046</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="19">
         <f t="shared" si="11"/>
         <v>11.8794874562088</v>
       </c>
-      <c r="H71" s="37">
+      <c r="H71" s="19">
         <f t="shared" si="11"/>
         <v>22.986952821111373</v>
       </c>
-      <c r="I71" s="37">
+      <c r="I71" s="19">
         <f t="shared" si="11"/>
         <v>27.27249326498934</v>
       </c>
-      <c r="J71" s="38">
+      <c r="J71" s="20">
         <f t="shared" si="11"/>
         <v>290.28156828997754</v>
       </c>
@@ -29850,7 +29850,7 @@
   <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29859,18 +29859,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -29879,10 +29879,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -29906,17 +29906,17 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="U3" t="s">
         <v>8</v>
       </c>
@@ -30372,57 +30372,57 @@
         <f>_xlfn.STDEV.P(J5:J14)</f>
         <v>187.36864732393195</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16">
         <f>AVERAGE(B16:J16)</f>
         <v>24.422247393084064</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="19">
         <f>_xlfn.STDEV.S(B5:B14)</f>
         <v>2.3475755815545325</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
         <v>1.7669811040931427</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="19">
         <f t="shared" si="2"/>
         <v>2.7162065049951147</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>2.5819888974716112</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
         <v>3.6453928305312835</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="19">
         <f t="shared" si="2"/>
         <v>3.8528488738133038</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>8.9448930184273916</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="19">
         <f t="shared" si="2"/>
         <v>8.3299993330665334</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="20">
         <f t="shared" si="2"/>
         <v>197.5038958828126</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
@@ -30440,17 +30440,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -30885,57 +30885,57 @@
         <f t="shared" si="4"/>
         <v>148.74057953362961</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34">
         <f>AVERAGE(B34:J34)</f>
         <v>23.787775777148777</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="19">
         <f t="shared" ref="B35:J35" si="5">_xlfn.STDEV.S(B23:B32)</f>
         <v>3.3399933466334262</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="19">
         <f t="shared" si="5"/>
         <v>4.2176876234364356</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="19">
         <f t="shared" si="5"/>
         <v>2.2135943621178655</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="19">
         <f t="shared" si="5"/>
         <v>1.9888578520235065</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="19">
         <f t="shared" si="5"/>
         <v>2.9739610697593943</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="19">
         <f>_xlfn.STDEV.S(G23:G32)</f>
         <v>4.6200048100023059</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="19">
         <f t="shared" si="5"/>
         <v>16.828877297999149</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="19">
         <f t="shared" si="5"/>
         <v>32.701342140312491</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="20">
         <f t="shared" si="5"/>
         <v>156.78633727323165</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -30951,17 +30951,17 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -31396,57 +31396,57 @@
         <f t="shared" si="7"/>
         <v>171.67087697102264</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52">
         <f>AVERAGE(B52:J52)</f>
         <v>25.855458755594153</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="19">
         <f>_xlfn.STDEV.S(B41:B50)</f>
         <v>2.1317702607092643</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="19">
         <f t="shared" ref="C53:J53" si="8">_xlfn.STDEV.S(C41:C50)</f>
         <v>2.6997942308422114</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="19">
         <f t="shared" si="8"/>
         <v>3.9735234853828265</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="19">
         <f t="shared" si="8"/>
         <v>5.6656861896861175</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="19">
         <f t="shared" si="8"/>
         <v>6.5625198412398476</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="19">
         <f t="shared" si="8"/>
         <v>9.7843412314439089</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="19">
         <f t="shared" si="8"/>
         <v>9.1923881554251174</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="19">
         <f t="shared" si="8"/>
         <v>24.319402404938604</v>
       </c>
-      <c r="J53" s="38">
+      <c r="J53" s="20">
         <f t="shared" si="8"/>
         <v>180.95699304899307</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -31464,17 +31464,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -31909,48 +31909,48 @@
         <f t="shared" si="10"/>
         <v>55.143449293637772</v>
       </c>
-      <c r="K70" s="39">
+      <c r="K70">
         <f>AVERAGE(B70:J70)</f>
         <v>9.8523371646058777</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="19">
         <f>_xlfn.STDEV.S(B59:B68)</f>
         <v>2.412928142780514</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="19">
         <f t="shared" ref="C71:J71" si="11">_xlfn.STDEV.S(C59:C68)</f>
         <v>1.8135294011647261</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="19">
         <f>_xlfn.STDEV.S(D59:D68)</f>
         <v>2.0138409955990952</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="19">
         <f t="shared" si="11"/>
         <v>4.4234225060089694</v>
       </c>
-      <c r="F71" s="37">
+      <c r="F71" s="19">
         <f t="shared" si="11"/>
         <v>2.7988092706244441</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="19">
         <f t="shared" si="11"/>
         <v>5.5537774932422748</v>
       </c>
-      <c r="H71" s="37">
+      <c r="H71" s="19">
         <f t="shared" si="11"/>
         <v>8.9094207318869945</v>
       </c>
-      <c r="I71" s="37">
+      <c r="I71" s="19">
         <f t="shared" si="11"/>
         <v>7.4154493382996627</v>
       </c>
-      <c r="J71" s="38">
+      <c r="J71" s="20">
         <f t="shared" si="11"/>
         <v>58.126299268632842</v>
       </c>
@@ -31986,34 +31986,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="L1" s="20" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -32028,39 +32028,39 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -32099,14 +32099,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -32407,57 +32407,57 @@
         <f>_xlfn.STDEV.P(J5:J14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16">
         <f>AVERAGE(B16:I16)</f>
         <v>16.613693465730528</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="19">
         <f>_xlfn.STDEV.S(B5:B14)</f>
         <v>6.0207972893961479</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
         <v>4.5607017003965513</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="19">
         <f t="shared" si="2"/>
         <v>4.5460605656619517</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>5.8022983951764031</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
         <v>14.656056768449009</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="19">
         <f t="shared" si="2"/>
         <v>2.6457513110645907</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>20.231987873991358</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="19">
         <f t="shared" si="2"/>
         <v>95.685247905132513</v>
       </c>
-      <c r="J17" s="38" t="e">
+      <c r="J17" s="20" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -32473,17 +32473,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -32756,48 +32756,48 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34">
         <f>AVERAGE(B34:I34)</f>
         <v>13.337898870964965</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="19">
         <f t="shared" ref="B35:J35" si="5">_xlfn.STDEV.S(B23:B32)</f>
         <v>8.0208062770106423</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="19">
         <f t="shared" si="5"/>
         <v>12.767145334803704</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="19">
         <f t="shared" si="5"/>
         <v>5.1316014394468841</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="19">
         <f t="shared" si="5"/>
         <v>7.5498344352707498</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="19">
         <f t="shared" si="5"/>
         <v>11.372481406154654</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="19">
         <f t="shared" si="5"/>
         <v>8.1445278152470788</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="19">
         <f t="shared" si="5"/>
         <v>52.003205029433843</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="19">
         <f t="shared" si="5"/>
         <v>24.433583445741231</v>
       </c>
-      <c r="J35" s="38" t="e">
+      <c r="J35" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -32825,10 +32825,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -32844,17 +32844,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -33172,57 +33172,57 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52">
         <f>AVERAGE(B52:I52)</f>
         <v>35.061636014324236</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="19">
         <f>_xlfn.STDEV.S(B41:B50)</f>
         <v>8.426149773176359</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="19">
         <f t="shared" ref="C53:J53" si="8">_xlfn.STDEV.S(C41:C50)</f>
         <v>8.6023252670426267</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="19">
         <f t="shared" si="8"/>
         <v>9.9398189118313418</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="19">
         <f t="shared" si="8"/>
         <v>6.164414002968976</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="19">
         <f t="shared" si="8"/>
         <v>6.757711644237764</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="19">
         <f t="shared" si="8"/>
         <v>14.645005649578646</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="19">
         <f t="shared" si="8"/>
         <v>115.60771106264001</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="19">
         <f t="shared" si="8"/>
         <v>139.64132626124689</v>
       </c>
-      <c r="J53" s="38" t="e">
+      <c r="J53" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
@@ -33240,17 +33240,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -33553,48 +33553,48 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" s="39">
+      <c r="K70">
         <f>AVERAGE(B70:I70)</f>
         <v>6.3743834543690632</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="19">
         <f>_xlfn.STDEV.S(B59:B68)</f>
         <v>5.805170109479997</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="19">
         <f t="shared" ref="C71:J71" si="11">_xlfn.STDEV.S(C59:C68)</f>
         <v>9.5289033996572865</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="19">
         <f>_xlfn.STDEV.S(D59:D68)</f>
         <v>2.2173557826083452</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="19">
         <f t="shared" si="11"/>
         <v>7.6157731058639087</v>
       </c>
-      <c r="F71" s="37">
+      <c r="F71" s="19">
         <f t="shared" si="11"/>
         <v>4.2720018726587652</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="19">
         <f t="shared" si="11"/>
         <v>4.4347115652166904</v>
       </c>
-      <c r="H71" s="37">
+      <c r="H71" s="19">
         <f t="shared" si="11"/>
         <v>11.295279249904951</v>
       </c>
-      <c r="I71" s="37">
+      <c r="I71" s="19">
         <f t="shared" si="11"/>
         <v>12.533953885346794</v>
       </c>
-      <c r="J71" s="38" t="e">
+      <c r="J71" s="20" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -33625,7 +33625,7 @@
   </sheetPr>
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -33635,18 +33635,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -33655,10 +33655,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -33682,17 +33682,17 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="U3" t="s">
         <v>8</v>
       </c>
@@ -34180,57 +34180,57 @@
         <f>_xlfn.STDEV.P(J5:J14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16">
         <f>AVERAGE(B16:I16)</f>
         <v>6.5957970948918652</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="19">
         <f>_xlfn.STDEV.S(B5:B14)</f>
         <v>2.4494897427831779</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
         <v>4.8944412914607112</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="19">
         <f t="shared" si="2"/>
         <v>2.9363620727393656</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>2.7100635498903793</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
         <v>3.5605867181937549</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="19">
         <f t="shared" si="2"/>
         <v>3.9510898637098992</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>5.5136195008360893</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="19">
         <f t="shared" si="2"/>
         <v>29.604992071533403</v>
       </c>
-      <c r="J17" s="38" t="e">
+      <c r="J17" s="20" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -34246,17 +34246,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -34691,48 +34691,48 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34">
         <f>AVERAGE(B34:I34)</f>
         <v>17.303679147774794</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="19">
         <f t="shared" ref="B35:J35" si="5">_xlfn.STDEV.S(B23:B32)</f>
         <v>4.4522154285504003</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="19">
         <f t="shared" si="5"/>
         <v>4.1217579852399009</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="19">
         <f t="shared" si="5"/>
         <v>4.8488257455915145</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="19">
         <f t="shared" si="5"/>
         <v>3.9440531887330774</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="19">
         <f t="shared" si="5"/>
         <v>5.1865209919559758</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="19">
         <f t="shared" si="5"/>
         <v>9.0651959591493529</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="19">
         <f t="shared" si="5"/>
         <v>51.814734069245851</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="19">
         <f t="shared" si="5"/>
         <v>62.484131318812992</v>
       </c>
-      <c r="J35" s="38" t="e">
+      <c r="J35" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -34760,10 +34760,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -34779,17 +34779,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -35224,57 +35224,57 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52">
         <f>AVERAGE(B52:I52)</f>
         <v>15.431984596642508</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="19">
         <f>_xlfn.STDEV.S(B41:B50)</f>
         <v>1.9465068427541912</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="19">
         <f t="shared" ref="C53:J53" si="8">_xlfn.STDEV.S(C41:C50)</f>
         <v>2.4244128727957577</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="19">
         <f t="shared" si="8"/>
         <v>5.9851668499902502</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="19">
         <f t="shared" si="8"/>
         <v>2.9514591494904874</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="19">
         <f t="shared" si="8"/>
         <v>3.1640339933558095</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="19">
         <f t="shared" si="8"/>
         <v>6.5226102477799817</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="19">
         <f t="shared" si="8"/>
         <v>44.474836830629421</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="19">
         <f t="shared" si="8"/>
         <v>62.664893591937812</v>
       </c>
-      <c r="J53" s="38" t="e">
+      <c r="J53" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
@@ -35292,17 +35292,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -35737,48 +35737,48 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" s="39">
+      <c r="K70">
         <f>AVERAGE(B70:I70)</f>
         <v>4.8091891328372061</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="19">
         <f>_xlfn.STDEV.S(B59:B68)</f>
         <v>1.398411797560202</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="19">
         <f t="shared" ref="C71:J71" si="11">_xlfn.STDEV.S(C59:C68)</f>
         <v>2.1213203435596424</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="19">
         <f>_xlfn.STDEV.S(D59:D68)</f>
         <v>2.4585451886114362</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="19">
         <f>_xlfn.STDEV.S(E59:E68)</f>
         <v>1.7029386365926402</v>
       </c>
-      <c r="F71" s="37">
+      <c r="F71" s="19">
         <f t="shared" si="11"/>
         <v>3.197221015541813</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="19">
         <f t="shared" si="11"/>
         <v>2.6436506745197801</v>
       </c>
-      <c r="H71" s="37">
+      <c r="H71" s="19">
         <f t="shared" si="11"/>
         <v>17.175240577322022</v>
       </c>
-      <c r="I71" s="37">
+      <c r="I71" s="19">
         <f t="shared" si="11"/>
         <v>9.8573153884141629</v>
       </c>
-      <c r="J71" s="38" t="e">
+      <c r="J71" s="20" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -35805,7 +35805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FEB5D-2983-4E4D-A643-6C81170FF3BE}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
@@ -35815,34 +35815,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="L1" s="20" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
@@ -35857,39 +35857,39 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -35928,14 +35928,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -36308,57 +36308,57 @@
         <f>_xlfn.STDEV.P(J5:J14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16">
         <f>AVERAGE(B16:H16)</f>
         <v>14.304245987057309</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="19">
         <f>_xlfn.STDEV.S(B5:B14)</f>
         <v>6.0699624747146732</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
         <v>5.8594652770823155</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="19">
         <f t="shared" si="2"/>
         <v>5.6715665090578513</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>11.704699910719626</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
         <v>12.157302332343306</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="19">
         <f t="shared" si="2"/>
         <v>12.175795661885921</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>55.641710972974224</v>
       </c>
-      <c r="I17" s="37" t="e">
+      <c r="I17" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="38" t="e">
+      <c r="J17" s="20" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
@@ -36374,17 +36374,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -36690,48 +36690,48 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34">
         <f>AVERAGE(B34:H34)</f>
         <v>8.6548367472492469</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="19">
         <f t="shared" ref="B35:J35" si="5">_xlfn.STDEV.S(B23:B32)</f>
         <v>4.2268979957726289</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="19">
         <f t="shared" si="5"/>
         <v>15.106290080625355</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="19">
         <f t="shared" si="5"/>
         <v>13.527749258468683</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="19">
         <f t="shared" si="5"/>
         <v>6.9282032302755088</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="19">
         <f t="shared" si="5"/>
         <v>19.078784028338912</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="19">
         <f t="shared" si="5"/>
         <v>7.6376261582597342</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="19">
         <f t="shared" si="5"/>
         <v>4.9328828623162471</v>
       </c>
-      <c r="I35" s="37" t="e">
+      <c r="I35" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="38" t="e">
+      <c r="J35" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -36759,10 +36759,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -36778,17 +36778,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -37118,57 +37118,57 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52">
         <f>AVERAGE(B52:H52)</f>
         <v>10.146055901894069</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="19">
         <f>_xlfn.STDEV.S(B41:B50)</f>
         <v>5.5946402922797462</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="19">
         <f t="shared" ref="C53:J53" si="8">_xlfn.STDEV.S(C41:C50)</f>
         <v>5.8999596447368861</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="19">
         <f t="shared" si="8"/>
         <v>5.3496773378445566</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="19">
         <f t="shared" si="8"/>
         <v>4.636809247747852</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="19">
         <f t="shared" si="8"/>
         <v>9.41629792788369</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="19">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="19">
         <f t="shared" si="8"/>
         <v>43.400268816371785</v>
       </c>
-      <c r="I53" s="37" t="e">
+      <c r="I53" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="38" t="e">
+      <c r="J53" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
@@ -37186,17 +37186,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -37550,64 +37550,64 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" s="39">
+      <c r="K70">
         <f>AVERAGE(B70:H70)</f>
         <v>12.291600597332863</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="19">
         <f t="shared" ref="B71:H71" si="13">_xlfn.STDEV.S(B59:B68)</f>
         <v>5.5986109388351357</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="19">
         <f t="shared" si="13"/>
         <v>7.0912420834233467</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="19">
         <f t="shared" si="13"/>
         <v>6.0553007081949835</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="19">
         <f t="shared" si="13"/>
         <v>9.2303846073714606</v>
       </c>
-      <c r="F71" s="37">
+      <c r="F71" s="19">
         <f t="shared" si="13"/>
         <v>1.707825127659933</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="19">
         <f t="shared" si="13"/>
         <v>33.596130729594442</v>
       </c>
-      <c r="H71" s="37">
+      <c r="H71" s="19">
         <f t="shared" si="13"/>
         <v>32.182293268193305</v>
       </c>
-      <c r="I71" s="37" t="e">
+      <c r="I71" s="19" t="e">
         <f t="shared" ref="I71:J71" si="14">_xlfn.STDEV.S(I59:I68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J71" s="38" t="e">
+      <c r="J71" s="20" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="L1:S4"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37623,7 +37623,7 @@
   <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37632,18 +37632,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -37652,10 +37652,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
@@ -37679,17 +37679,17 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="U3" t="s">
         <v>8</v>
       </c>
@@ -38177,57 +38177,57 @@
         <f>_xlfn.STDEV.P(J5:J14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16">
         <f>AVERAGE(B16:H16)</f>
         <v>7.237770871298232</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="19">
         <f>_xlfn.STDEV.S(B5:B14)</f>
         <v>2.5841396591085819</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:J17" si="2">_xlfn.STDEV.S(C5:C14)</f>
         <v>2.7264140062238043</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="19">
         <f t="shared" si="2"/>
         <v>3.1198290551460244</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>2.6997942308422118</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
         <v>6.5055531834135536</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="19">
         <f t="shared" si="2"/>
         <v>8.6954649738303882</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>27.073767541457709</v>
       </c>
-      <c r="I17" s="37" t="e">
+      <c r="I17" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="38" t="e">
+      <c r="J17" s="20" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
@@ -38243,17 +38243,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -38688,48 +38688,48 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34">
         <f>AVERAGE(B34:H34)</f>
         <v>10.085152984072007</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="19">
         <f t="shared" ref="B35:J35" si="5">_xlfn.STDEV.S(B23:B32)</f>
         <v>4.661902329879223</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="19">
         <f t="shared" si="5"/>
         <v>3.4058772731852809</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="19">
         <f t="shared" si="5"/>
         <v>3.3813212407775359</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="19">
         <f t="shared" si="5"/>
         <v>3.062315754094894</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="19">
         <f t="shared" si="5"/>
         <v>6.4256430720114617</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="19">
         <f t="shared" si="5"/>
         <v>23.822491706601792</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="19">
         <f t="shared" si="5"/>
         <v>29.655241245576363</v>
       </c>
-      <c r="I35" s="37" t="e">
+      <c r="I35" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="38" t="e">
+      <c r="J35" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -38757,10 +38757,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -38776,17 +38776,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -39221,57 +39221,57 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52">
         <f>AVERAGE(B52:H52)</f>
         <v>8.7128487919588533</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="19">
         <f>_xlfn.STDEV.S(B41:B50)</f>
         <v>4.7621190427978357</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="19">
         <f t="shared" ref="C53:J53" si="8">_xlfn.STDEV.S(C41:C50)</f>
         <v>4.0674862562084266</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="19">
         <f t="shared" si="8"/>
         <v>2.4698178070456938</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="19">
         <f t="shared" si="8"/>
         <v>3.3349995835415358</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="19">
         <f t="shared" si="8"/>
         <v>12.254704312131638</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="19">
         <f t="shared" si="8"/>
         <v>20.200110010701536</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="19">
         <f t="shared" si="8"/>
         <v>17.199806200458578</v>
       </c>
-      <c r="I53" s="37" t="e">
+      <c r="I53" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="38" t="e">
+      <c r="J53" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
@@ -39289,17 +39289,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -39734,48 +39734,48 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" s="39">
+      <c r="K70">
         <f>AVERAGE(B70:H70)</f>
         <v>4.387905283373482</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="19">
         <f>_xlfn.STDEV.S(B59:B68)</f>
         <v>2.0027758514399734</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="19">
         <f t="shared" ref="C71:J71" si="11">_xlfn.STDEV.S(C59:C68)</f>
         <v>1.4944341180973264</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="19">
         <f>_xlfn.STDEV.S(D59:D68)</f>
         <v>1.9321835661585918</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="19">
         <f>_xlfn.STDEV.S(E59:E68)</f>
         <v>2.3213980461973533</v>
       </c>
-      <c r="F71" s="37">
+      <c r="F71" s="19">
         <f t="shared" si="11"/>
         <v>4.0496913462633168</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="19">
         <f t="shared" si="11"/>
         <v>8.5374989832437986</v>
       </c>
-      <c r="H71" s="37">
+      <c r="H71" s="19">
         <f t="shared" si="11"/>
         <v>12.038826077875424</v>
       </c>
-      <c r="I71" s="37" t="e">
+      <c r="I71" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J71" s="38" t="e">
+      <c r="J71" s="20" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -39806,32 +39806,32 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -39852,7 +39852,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -39873,7 +39873,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B5">
@@ -39894,22 +39894,22 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="21">
         <f>AVERAGE(B3:B5)</f>
         <v>12.751938453091386</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="21">
         <f>AVERAGE(C3:C5)</f>
         <v>17.058869302998527</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="21">
         <f>AVERAGE(D3:D5)</f>
         <v>16.666764048065172</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="21">
         <f>AVERAGE(E3:E5)</f>
         <v>6.3498105269388558</v>
       </c>
@@ -39950,23 +39950,23 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="1">
         <v>50</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balladaniel\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF9DB40-6494-4440-8C4F-2E8E19A8DF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5CE506-A3E9-40D5-9EA3-EC4376274FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="59">
   <si>
     <t>Run #</t>
   </si>
@@ -215,12 +215,18 @@
   <si>
     <t>avg</t>
   </si>
+  <si>
+    <t>Rendering speed consistency of libraries (ms)</t>
+  </si>
+  <si>
+    <t>Points: 50 - 500000 features</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +296,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -462,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -551,6 +564,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,12 +1450,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1447,10 +1460,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="sk-SK"/>
+              <a:rPr lang="sk-SK" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Full chart: 50 - 100000 line features</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1467,12 +1488,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1504,7 +1522,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1513,7 +1531,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1617,7 +1647,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1626,7 +1656,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1730,7 +1772,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1739,7 +1781,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1843,7 +1897,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1852,7 +1906,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1963,6 +2029,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -1981,12 +2048,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1994,10 +2058,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
-                  <a:t>Feature count</a:t>
+                  <a:rPr lang="sk-SK" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dataset (feature count)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2014,12 +2086,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2038,10 +2107,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2052,12 +2118,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2102,12 +2165,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2115,10 +2175,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
+                  <a:rPr lang="sk-SK" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2143,12 +2211,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2160,13 +2225,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2175,12 +2242,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2219,10 +2283,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2249,12 +2310,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3107,63 +3163,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 100000 line features (LOG Y)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3184,7 +3184,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3193,7 +3193,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3297,7 +3309,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3306,7 +3318,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3410,7 +3434,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -3419,7 +3443,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3523,7 +3559,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -3532,7 +3568,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3643,6 +3691,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -3661,12 +3710,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3674,10 +3720,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
-                  <a:t>Feature count</a:t>
+                  <a:rPr lang="sk-SK" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dataset (feature count)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3694,12 +3748,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3718,10 +3769,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3732,12 +3780,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3783,12 +3828,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3796,10 +3838,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
+                  <a:rPr lang="sk-SK" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3824,12 +3874,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3841,13 +3888,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3856,12 +3905,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3900,10 +3946,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3930,12 +3973,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6496,12 +6534,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6509,10 +6544,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="sk-SK"/>
+              <a:rPr lang="sk-SK" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Full chart: 50 - 50000 polygon features</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6529,12 +6572,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6566,7 +6606,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -6575,7 +6615,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -6673,7 +6725,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -6682,7 +6734,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -6780,7 +6844,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -6789,7 +6853,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -6887,7 +6963,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -6896,7 +6972,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7001,6 +7089,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -7019,12 +7108,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7032,10 +7118,34 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
-                  <a:t>Feature count</a:t>
+                  <a:rPr lang="sk-SK" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dataset</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1200" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>eature count)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7052,12 +7162,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7076,10 +7183,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -7090,12 +7194,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7140,12 +7241,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7153,10 +7251,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
+                  <a:rPr lang="sk-SK" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7181,12 +7287,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7198,13 +7301,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7213,12 +7318,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7257,10 +7359,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7287,12 +7386,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -8145,71 +8239,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 50000 polygon</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sk-SK" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sk-SK"/>
-              <a:t>features (LOG Y)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -8230,7 +8260,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -8239,7 +8269,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8337,7 +8379,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -8346,7 +8388,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8444,7 +8498,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -8453,7 +8507,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8551,7 +8617,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -8560,7 +8626,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -8665,6 +8743,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="444999919"/>
         <c:axId val="445001359"/>
@@ -8683,12 +8762,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8696,10 +8772,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
-                  <a:t>Feature count</a:t>
+                  <a:rPr lang="sk-SK" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dataset (feature count)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8716,12 +8800,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8740,10 +8821,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -8754,12 +8832,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8805,12 +8880,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8818,10 +8890,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
+                  <a:rPr lang="sk-SK" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8846,12 +8926,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8863,13 +8940,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8878,12 +8957,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8922,10 +8998,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -8952,12 +9025,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -8994,67 +9062,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sk-SK"/>
-              <a:t>Rendering</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sk-SK" baseline="0"/>
-              <a:t> speed consistency of libraries (ms)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -9103,10 +9111,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9233,10 +9238,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9363,10 +9365,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9479,10 +9478,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -9495,10 +9491,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9557,7 +9550,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -9568,10 +9563,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9610,10 +9602,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -9640,12 +9629,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -11338,12 +11322,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -11351,18 +11332,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="sk-SK"/>
+              <a:rPr lang="sk-SK" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Full chart: 50 - 500000 point</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:rPr lang="sk-SK" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="sk-SK"/>
+              <a:rPr lang="sk-SK" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>features</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -11379,12 +11376,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -11416,7 +11410,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -11425,7 +11419,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -11521,7 +11527,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -11530,7 +11536,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -11626,7 +11644,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -11635,7 +11653,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -11731,7 +11761,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -11740,7 +11770,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -11843,6 +11885,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1185265359"/>
         <c:axId val="1185266799"/>
@@ -11861,7 +11904,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11874,10 +11917,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
-                  <a:t>Feature count</a:t>
+                  <a:rPr lang="sk-SK" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dataset (feature count)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11894,7 +11945,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11918,10 +11969,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -11932,12 +11980,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -11982,12 +12027,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -11995,10 +12037,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
+                  <a:rPr lang="sk-SK" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -12015,12 +12065,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -12032,13 +12079,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -12047,12 +12096,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -12091,10 +12137,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -12121,12 +12164,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -12979,67 +13017,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sk-SK"/>
-              <a:t>Full chart: 50 - 500000 point features (LOG</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sk-SK" baseline="0"/>
-              <a:t> Y)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -13060,7 +13038,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -13069,7 +13047,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -13165,7 +13155,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -13174,7 +13164,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -13270,7 +13272,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -13279,7 +13281,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -13375,7 +13389,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -13384,7 +13398,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -13487,6 +13513,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1185265359"/>
         <c:axId val="1185266799"/>
@@ -13505,7 +13532,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -13518,10 +13545,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
-                  <a:t>Feature count</a:t>
+                  <a:rPr lang="sk-SK" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Dataset (feature count)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -13538,7 +13573,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -13562,10 +13597,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -13576,12 +13608,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -13628,12 +13657,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -13641,10 +13667,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sk-SK"/>
+                  <a:rPr lang="sk-SK" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -13661,12 +13695,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -13678,13 +13709,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -13693,12 +13726,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -13737,10 +13767,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -13767,12 +13794,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -29847,10 +29869,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29858,7 +29880,7 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -29878,7 +29900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
@@ -29904,7 +29926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="23" t="s">
         <v>1</v>
@@ -29921,7 +29943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -29956,7 +29978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -29991,7 +30013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -30026,7 +30048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -30061,7 +30083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -30096,7 +30118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -30130,8 +30152,11 @@
       <c r="U9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -30163,7 +30188,7 @@
         <v>10932</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -30195,7 +30220,7 @@
         <v>10772</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -30227,7 +30252,7 @@
         <v>11022</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -30259,7 +30284,7 @@
         <v>10670</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -30291,7 +30316,7 @@
         <v>10598</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
@@ -30332,7 +30357,7 @@
         <v>10808.7</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -33625,8 +33650,8 @@
   </sheetPr>
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37598,16 +37623,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L1:S4"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B39:J39"/>
     <mergeCell ref="B57:J57"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="L1:S4"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37622,8 +37647,8 @@
   </sheetPr>
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB39" sqref="AB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39803,10 +39828,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39912,6 +39937,11 @@
       <c r="E6" s="21">
         <f>AVERAGE(E3:E5)</f>
         <v>6.3498105269388558</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H19" s="41" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balladaniel\Desktop\phd_local\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Suli_BACKUP\Phd\pub_webmaps_codecomplexity_performance\webmaplibs_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5CE506-A3E9-40D5-9EA3-EC4376274FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE717D6F-34AB-4B23-AFB9-95D59800B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -511,6 +511,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,9 +568,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +600,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -663,7 +663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1178,7 +1178,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1216,7 +1216,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -1307,7 +1307,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1339,7 +1339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -1381,7 +1381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1418,7 +1418,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1432,7 +1432,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1497,7 +1497,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2095,7 +2095,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2127,7 +2127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -2220,7 +2220,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2251,7 +2251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -2290,7 +2290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2322,7 +2322,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2336,7 +2336,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2399,7 +2399,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2898,7 +2898,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2936,7 +2936,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -3027,7 +3027,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3059,7 +3059,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -3101,7 +3101,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3138,7 +3138,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3152,7 +3152,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3194,7 +3194,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3319,7 +3319,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="4"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3444,7 +3444,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -3569,7 +3569,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -3757,7 +3757,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3789,7 +3789,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -3883,7 +3883,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3914,7 +3914,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -3953,7 +3953,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3985,7 +3985,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3999,7 +3999,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4070,7 +4070,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4593,7 +4593,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4631,7 +4631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -4722,7 +4722,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4754,7 +4754,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -4796,7 +4796,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4833,7 +4833,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4847,7 +4847,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4910,7 +4910,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5409,7 +5409,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5447,7 +5447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -5538,7 +5538,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5570,7 +5570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -5612,7 +5612,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5649,7 +5649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5663,7 +5663,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5738,7 +5738,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6261,7 +6261,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6299,7 +6299,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -6391,7 +6391,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6423,7 +6423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -6465,7 +6465,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6502,7 +6502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6516,7 +6516,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6581,7 +6581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7171,7 +7171,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7203,7 +7203,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -7296,7 +7296,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7327,7 +7327,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -7366,7 +7366,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7398,7 +7398,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7412,7 +7412,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7475,7 +7475,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7974,7 +7974,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8012,7 +8012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -8103,7 +8103,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8135,7 +8135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -8177,7 +8177,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8214,7 +8214,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8228,7 +8228,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8270,7 +8270,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -8389,7 +8389,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="4"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -8508,7 +8508,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -8627,7 +8627,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -8809,7 +8809,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8841,7 +8841,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -8935,7 +8935,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8966,7 +8966,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -9005,7 +9005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9037,7 +9037,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9051,7 +9051,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9118,7 +9118,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="hu-HU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -9245,7 +9245,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="hu-HU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -9372,7 +9372,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="hu-HU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -9489,7 +9489,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -9498,7 +9498,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="723657216"/>
@@ -9561,7 +9561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -9570,7 +9570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="723633696"/>
@@ -9609,7 +9609,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9641,7 +9641,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9655,7 +9655,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9718,7 +9718,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10217,7 +10217,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10255,7 +10255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -10346,7 +10346,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10378,7 +10378,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -10420,7 +10420,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10457,7 +10457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10471,7 +10471,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10534,7 +10534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11049,7 +11049,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11087,7 +11087,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -11179,7 +11179,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11211,7 +11211,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -11253,7 +11253,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11290,7 +11290,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11304,7 +11304,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11385,7 +11385,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11957,7 +11957,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11989,7 +11989,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185266799"/>
@@ -12074,7 +12074,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12105,7 +12105,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185265359"/>
@@ -12144,7 +12144,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12176,7 +12176,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12190,7 +12190,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12261,7 +12261,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12760,7 +12760,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12798,7 +12798,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185266799"/>
@@ -12881,7 +12881,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12913,7 +12913,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185265359"/>
@@ -12955,7 +12955,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12992,7 +12992,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13006,7 +13006,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13048,7 +13048,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -13165,7 +13165,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="4"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -13282,7 +13282,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -13399,7 +13399,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -13585,7 +13585,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13617,7 +13617,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185266799"/>
@@ -13704,7 +13704,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13735,7 +13735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185265359"/>
@@ -13774,7 +13774,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13806,7 +13806,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13820,7 +13820,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13883,7 +13883,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14430,7 +14430,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14468,7 +14468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -14559,7 +14559,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14591,7 +14591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -14633,7 +14633,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14670,7 +14670,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14684,7 +14684,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14747,7 +14747,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15246,7 +15246,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15284,7 +15284,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -15375,7 +15375,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15407,7 +15407,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -15449,7 +15449,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15486,7 +15486,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15500,7 +15500,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15575,7 +15575,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16122,7 +16122,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16160,7 +16160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445001359"/>
@@ -16252,7 +16252,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16284,7 +16284,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="444999919"/>
@@ -16326,7 +16326,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="hu-HU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16363,7 +16363,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -27961,34 +27961,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="L1" s="25" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="L1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -28003,39 +28003,39 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -28074,14 +28074,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -28573,10 +28573,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
@@ -28594,17 +28594,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -28922,61 +28922,61 @@
       <c r="L35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U35" s="27" t="s">
+      <c r="U35" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L36" s="26" t="s">
+      <c r="L36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -28989,55 +28989,55 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -29071,15 +29071,15 @@
       <c r="J40" s="13">
         <v>500000</v>
       </c>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -29330,10 +29330,10 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -29351,17 +29351,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -29871,8 +29871,8 @@
   </sheetPr>
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29881,18 +29881,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -29901,10 +29901,10 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -29928,17 +29928,17 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
       <c r="U3" t="s">
         <v>8</v>
       </c>
@@ -30444,10 +30444,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
@@ -30465,17 +30465,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -30957,10 +30957,10 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
@@ -30976,17 +30976,17 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -31468,10 +31468,10 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
@@ -31489,17 +31489,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -32011,34 +32011,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="L1" s="25" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="L1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -32053,39 +32053,39 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -32124,14 +32124,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -32479,10 +32479,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -32498,17 +32498,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -32850,10 +32850,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -32869,17 +32869,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -33244,10 +33244,10 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
@@ -33265,17 +33265,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -33650,8 +33650,8 @@
   </sheetPr>
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView topLeftCell="R3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33660,18 +33660,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -33680,10 +33680,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -33707,17 +33707,17 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
       <c r="U3" t="s">
         <v>8</v>
       </c>
@@ -34252,10 +34252,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -34271,17 +34271,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -34785,10 +34785,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -34804,17 +34804,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -35296,10 +35296,10 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
@@ -35317,17 +35317,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -35840,34 +35840,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="L1" s="25" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="L1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
@@ -35882,39 +35882,39 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
       <c r="U2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -35953,14 +35953,14 @@
       <c r="J4" s="13">
         <v>500000</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
       <c r="U4" t="s">
         <v>8</v>
       </c>
@@ -36380,10 +36380,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
@@ -36399,17 +36399,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -36784,10 +36784,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -36803,17 +36803,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -37190,10 +37190,10 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
@@ -37211,17 +37211,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -37623,16 +37623,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="L1:S4"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37647,8 +37647,8 @@
   </sheetPr>
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO23" sqref="AO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37657,18 +37657,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
       <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
@@ -37677,10 +37677,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
@@ -37704,17 +37704,17 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
       <c r="U3" t="s">
         <v>8</v>
       </c>
@@ -38249,10 +38249,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
@@ -38268,17 +38268,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -38782,10 +38782,10 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -38801,17 +38801,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -39293,10 +39293,10 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
@@ -39314,17 +39314,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -39831,7 +39831,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39940,7 +39940,7 @@
       </c>
     </row>
     <row r="19" spans="8:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="23" t="s">
         <v>57</v>
       </c>
     </row>
@@ -39980,23 +39980,23 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="1">
         <v>50</v>
       </c>
